--- a/left_ankle_Data_Variable.xlsx
+++ b/left_ankle_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.1058959960938</v>
+        <v>394.1000671386719</v>
       </c>
       <c r="B2" t="n">
-        <v>320.6183471679688</v>
+        <v>398.3880004882812</v>
       </c>
       <c r="C2" t="n">
-        <v>324.5652465820312</v>
+        <v>401.2085266113281</v>
       </c>
       <c r="D2" t="n">
-        <v>327.5870361328125</v>
+        <v>405.5587768554688</v>
       </c>
       <c r="E2" t="n">
-        <v>327.1533508300781</v>
+        <v>411.7179565429688</v>
       </c>
       <c r="F2" t="n">
-        <v>324.5150146484375</v>
+        <v>417.7596435546875</v>
       </c>
       <c r="G2" t="n">
-        <v>326.8218994140625</v>
+        <v>424.52490234375</v>
       </c>
       <c r="H2" t="n">
-        <v>292.4452209472656</v>
+        <v>432.0303955078125</v>
       </c>
       <c r="I2" t="n">
-        <v>333.7944946289062</v>
+        <v>439.4346618652344</v>
       </c>
       <c r="J2" t="n">
-        <v>301.6660766601562</v>
+        <v>444.1869812011719</v>
       </c>
       <c r="K2" t="n">
-        <v>312.0355529785156</v>
+        <v>448.5088500976562</v>
       </c>
       <c r="L2" t="n">
-        <v>344.2912292480469</v>
+        <v>451.1959228515625</v>
       </c>
       <c r="M2" t="n">
-        <v>320.4899597167969</v>
+        <v>476.6585693359375</v>
       </c>
       <c r="N2" t="n">
-        <v>319.2328796386719</v>
+        <v>476.5304870605469</v>
       </c>
       <c r="O2" t="n">
-        <v>348.6646728515625</v>
+        <v>483.4012451171875</v>
       </c>
       <c r="P2" t="n">
-        <v>358.3498840332031</v>
+        <v>479.1160583496094</v>
       </c>
       <c r="Q2" t="n">
-        <v>354.897705078125</v>
+        <v>470.4421997070312</v>
       </c>
       <c r="R2" t="n">
-        <v>354.8804016113281</v>
+        <v>470.08251953125</v>
       </c>
       <c r="S2" t="n">
-        <v>357.2125854492188</v>
+        <v>469.4954223632812</v>
       </c>
       <c r="T2" t="n">
-        <v>356.0942993164062</v>
+        <v>467.4664001464844</v>
       </c>
       <c r="U2" t="n">
-        <v>355.5647277832031</v>
+        <v>464.7261962890625</v>
       </c>
       <c r="V2" t="n">
-        <v>354.3933715820312</v>
+        <v>462.5188598632812</v>
       </c>
       <c r="W2" t="n">
-        <v>353.3367309570312</v>
+        <v>453.6956176757812</v>
       </c>
       <c r="X2" t="n">
-        <v>352.3878173828125</v>
+        <v>458.559326171875</v>
       </c>
       <c r="Y2" t="n">
-        <v>350.8109130859375</v>
+        <v>453.6328125</v>
       </c>
       <c r="Z2" t="n">
-        <v>347.6018676757812</v>
+        <v>442.9159240722656</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.0321350097656</v>
+        <v>431.660400390625</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.3846435546875</v>
+        <v>436.6563110351562</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.0634765625</v>
+        <v>439.6885681152344</v>
       </c>
       <c r="AD2" t="n">
-        <v>342.9566650390625</v>
+        <v>422.6392822265625</v>
       </c>
       <c r="AE2" t="n">
-        <v>342.72802734375</v>
+        <v>420.7934265136719</v>
       </c>
       <c r="AF2" t="n">
-        <v>342.7075500488281</v>
+        <v>419.457763671875</v>
       </c>
       <c r="AG2" t="n">
-        <v>343.2974243164062</v>
+        <v>418.8420104980469</v>
       </c>
       <c r="AH2" t="n">
-        <v>343.7425231933594</v>
+        <v>418.5175170898438</v>
       </c>
       <c r="AI2" t="n">
-        <v>344.74365234375</v>
+        <v>427.5323791503906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>349.8432006835938</v>
+        <v>426.5556335449219</v>
       </c>
       <c r="AK2" t="n">
-        <v>355.9338684082031</v>
+        <v>425.8591003417969</v>
       </c>
       <c r="AL2" t="n">
-        <v>359.0542602539062</v>
+        <v>423.5870666503906</v>
       </c>
       <c r="AM2" t="n">
-        <v>356.6525268554688</v>
+        <v>418.1185913085938</v>
       </c>
       <c r="AN2" t="n">
-        <v>350.9923706054688</v>
+        <v>415.2813110351562</v>
       </c>
       <c r="AO2" t="n">
-        <v>349.7241821289062</v>
+        <v>416.6787719726562</v>
       </c>
       <c r="AP2" t="n">
-        <v>349.1417236328125</v>
+        <v>416.9754638671875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>348.9278564453125</v>
+        <v>417.0464782714844</v>
       </c>
       <c r="AR2" t="n">
-        <v>347.8538513183594</v>
+        <v>417.2368774414062</v>
       </c>
       <c r="AS2" t="n">
-        <v>346.6364135742188</v>
+        <v>417.3096313476562</v>
       </c>
       <c r="AT2" t="n">
-        <v>346.0460815429688</v>
+        <v>417.0527954101562</v>
       </c>
       <c r="AU2" t="n">
-        <v>346.1484069824219</v>
+        <v>416.8318176269531</v>
       </c>
       <c r="AV2" t="n">
-        <v>346.3793334960938</v>
+        <v>416.4979858398438</v>
       </c>
       <c r="AW2" t="n">
-        <v>348.2354125976562</v>
+        <v>416.3362121582031</v>
       </c>
       <c r="AX2" t="n">
-        <v>351.765625</v>
+        <v>416.1659545898438</v>
       </c>
       <c r="AY2" t="n">
-        <v>350.3629150390625</v>
+        <v>415.4138488769531</v>
       </c>
       <c r="AZ2" t="n">
-        <v>347.5119018554688</v>
+        <v>413.0551147460938</v>
       </c>
       <c r="BA2" t="n">
-        <v>346.6676025390625</v>
+        <v>408.692138671875</v>
       </c>
       <c r="BB2" t="n">
-        <v>346.194091796875</v>
+        <v>402.9880981445312</v>
       </c>
       <c r="BC2" t="n">
-        <v>346.2713623046875</v>
+        <v>399.7867431640625</v>
       </c>
       <c r="BD2" t="n">
-        <v>346.1010437011719</v>
+        <v>396.2945861816406</v>
       </c>
       <c r="BE2" t="n">
-        <v>346.5800476074219</v>
+        <v>395.4071655273438</v>
       </c>
       <c r="BF2" t="n">
-        <v>346.6064453125</v>
+        <v>393.6323852539062</v>
       </c>
       <c r="BG2" t="n">
-        <v>346.3961486816406</v>
+        <v>392.0261840820312</v>
       </c>
       <c r="BH2" t="n">
-        <v>346.0572509765625</v>
+        <v>390.48486328125</v>
       </c>
       <c r="BI2" t="n">
-        <v>345.376220703125</v>
+        <v>390.74365234375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.5519409179688</v>
+        <v>390.865234375</v>
       </c>
       <c r="BK2" t="n">
-        <v>343.3867797851562</v>
+        <v>389.5150146484375</v>
       </c>
       <c r="BL2" t="n">
-        <v>341.61474609375</v>
+        <v>387.1142883300781</v>
       </c>
       <c r="BM2" t="n">
-        <v>340.052734375</v>
+        <v>380.8970947265625</v>
       </c>
       <c r="BN2" t="n">
-        <v>338.9457702636719</v>
+        <v>372.8247680664062</v>
       </c>
       <c r="BO2" t="n">
-        <v>336.4959106445312</v>
+        <v>362.416748046875</v>
       </c>
       <c r="BP2" t="n">
-        <v>333.2683715820312</v>
+        <v>362.2036437988281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>330.8533935546875</v>
+        <v>360.8252563476562</v>
       </c>
       <c r="BR2" t="n">
-        <v>330.8683776855469</v>
+        <v>359.2620544433594</v>
       </c>
       <c r="BS2" t="n">
-        <v>330.0673828125</v>
+        <v>360.1804809570312</v>
       </c>
       <c r="BT2" t="n">
-        <v>328.7284851074219</v>
+        <v>361.1133117675781</v>
       </c>
       <c r="BU2" t="n">
-        <v>328.3673706054688</v>
+        <v>362.2002563476562</v>
       </c>
       <c r="BV2" t="n">
-        <v>325.873779296875</v>
+        <v>362.466552734375</v>
       </c>
       <c r="BW2" t="n">
-        <v>324.6564025878906</v>
+        <v>362.8229370117188</v>
       </c>
       <c r="BX2" t="n">
-        <v>325.9295349121094</v>
+        <v>362.7319946289062</v>
       </c>
       <c r="BY2" t="n">
-        <v>325.3453369140625</v>
+        <v>362.6126098632812</v>
       </c>
       <c r="BZ2" t="n">
-        <v>324.0888061523438</v>
+        <v>362.3428649902344</v>
       </c>
       <c r="CA2" t="n">
-        <v>323.754150390625</v>
+        <v>362.050048828125</v>
       </c>
       <c r="CB2" t="n">
-        <v>324.1402587890625</v>
+        <v>362.2162170410156</v>
       </c>
       <c r="CC2" t="n">
-        <v>318.0190124511719</v>
+        <v>363.1756286621094</v>
       </c>
       <c r="CD2" t="n">
-        <v>317.4828796386719</v>
+        <v>367.3230285644531</v>
       </c>
       <c r="CE2" t="n">
-        <v>318.5702819824219</v>
+        <v>384.1946411132812</v>
       </c>
       <c r="CF2" t="n">
-        <v>316.2654724121094</v>
+        <v>387.1228637695312</v>
       </c>
       <c r="CG2" t="n">
-        <v>323.1497802734375</v>
+        <v>389.1802978515625</v>
       </c>
       <c r="CH2" t="n">
-        <v>326.2227783203125</v>
+        <v>394.3410034179688</v>
       </c>
       <c r="CI2" t="n">
-        <v>325.4448852539062</v>
+        <v>401.9063110351562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>324.0333557128906</v>
+        <v>402.580078125</v>
       </c>
       <c r="CK2" t="n">
-        <v>325.3776245117188</v>
+        <v>404.5299682617188</v>
       </c>
       <c r="CL2" t="n">
-        <v>324.8840026855469</v>
+        <v>404.6908264160156</v>
       </c>
       <c r="CM2" t="n">
-        <v>324.6527099609375</v>
+        <v>404.4843139648438</v>
       </c>
       <c r="CN2" t="n">
-        <v>324.5267333984375</v>
+        <v>404.468017578125</v>
       </c>
       <c r="CO2" t="n">
-        <v>324.5896911621094</v>
+        <v>405.1380615234375</v>
       </c>
       <c r="CP2" t="n">
-        <v>324.3364868164062</v>
+        <v>406.7242126464844</v>
       </c>
       <c r="CQ2" t="n">
-        <v>325.2467041015625</v>
+        <v>409.2363891601562</v>
       </c>
       <c r="CR2" t="n">
-        <v>325.8049926757812</v>
+        <v>414.353271484375</v>
       </c>
       <c r="CS2" t="n">
-        <v>319.8070983886719</v>
+        <v>416.23095703125</v>
       </c>
       <c r="CT2" t="n">
-        <v>320.9361267089844</v>
+        <v>414.4440307617188</v>
       </c>
       <c r="CU2" t="n">
-        <v>323.3701782226562</v>
+        <v>413.3504028320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>334.2608032226562</v>
+        <v>411.56591796875</v>
       </c>
       <c r="CW2" t="n">
-        <v>332.4609985351562</v>
+        <v>408.5516967773438</v>
       </c>
       <c r="CX2" t="n">
-        <v>330.3180541992188</v>
+        <v>409.0475158691406</v>
       </c>
       <c r="CY2" t="n">
-        <v>339.3447570800781</v>
+        <v>406.965576171875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>343.6702270507812</v>
+        <v>390.5807189941406</v>
       </c>
       <c r="DA2" t="n">
-        <v>344.8091125488281</v>
+        <v>384.7748107910156</v>
       </c>
       <c r="DB2" t="n">
-        <v>345.2264709472656</v>
+        <v>383.7101440429688</v>
       </c>
       <c r="DC2" t="n">
-        <v>347.5616760253906</v>
+        <v>382.0170288085938</v>
       </c>
       <c r="DD2" t="n">
-        <v>349.3988342285156</v>
+        <v>381.9014892578125</v>
       </c>
       <c r="DE2" t="n">
-        <v>346.27587890625</v>
+        <v>378.7525024414062</v>
       </c>
       <c r="DF2" t="n">
-        <v>344.936767578125</v>
+        <v>376.0330810546875</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.9872436523438</v>
+        <v>376.37841796875</v>
       </c>
       <c r="DH2" t="n">
-        <v>333.386474609375</v>
+        <v>376.4131469726562</v>
       </c>
       <c r="DI2" t="n">
-        <v>339.7820434570312</v>
+        <v>376.10693359375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>338.84228515625</v>
+        <v>375.2005004882812</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.6018676757812</v>
+        <v>373.46337890625</v>
       </c>
       <c r="DL2" t="n">
-        <v>330.812744140625</v>
+        <v>372.1856689453125</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.4142150878906</v>
+        <v>371.6723937988281</v>
       </c>
       <c r="DN2" t="n">
-        <v>330.8557739257812</v>
+        <v>370.7207946777344</v>
       </c>
       <c r="DO2" t="n">
-        <v>337.7735900878906</v>
+        <v>368.7320556640625</v>
       </c>
       <c r="DP2" t="n">
-        <v>338.3011169433594</v>
+        <v>365.19482421875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>332.3699645996094</v>
+        <v>361.6093139648438</v>
       </c>
       <c r="DR2" t="n">
-        <v>335.9634399414062</v>
+        <v>361.4162902832031</v>
       </c>
       <c r="DS2" t="n">
-        <v>347.2901611328125</v>
+        <v>361.2149658203125</v>
       </c>
       <c r="DT2" t="n">
-        <v>339.9615478515625</v>
+        <v>361.0443115234375</v>
       </c>
       <c r="DU2" t="n">
-        <v>341.3992309570312</v>
+        <v>360.9711303710938</v>
       </c>
       <c r="DV2" t="n">
-        <v>341.5435791015625</v>
+        <v>360.9287109375</v>
       </c>
       <c r="DW2" t="n">
-        <v>343.8717346191406</v>
+        <v>360.8422241210938</v>
       </c>
       <c r="DX2" t="n">
-        <v>347.2710571289062</v>
+        <v>360.9949340820312</v>
       </c>
       <c r="DY2" t="n">
-        <v>348.9458923339844</v>
+        <v>362.2622375488281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>351.6256408691406</v>
+        <v>375.7449340820312</v>
       </c>
       <c r="EA2" t="n">
-        <v>352.5975952148438</v>
+        <v>383.8696594238281</v>
       </c>
       <c r="EB2" t="n">
-        <v>352.8582153320312</v>
+        <v>392.335205078125</v>
       </c>
       <c r="EC2" t="n">
-        <v>338.373779296875</v>
+        <v>398.822021484375</v>
       </c>
       <c r="ED2" t="n">
-        <v>340.9441833496094</v>
+        <v>403.9282836914062</v>
       </c>
       <c r="EE2" t="n">
-        <v>341.6185302734375</v>
+        <v>417.9019775390625</v>
       </c>
       <c r="EF2" t="n">
-        <v>333.2644348144531</v>
+        <v>441.4373168945312</v>
       </c>
       <c r="EG2" t="n">
-        <v>335.8458862304688</v>
+        <v>459.6255798339844</v>
       </c>
       <c r="EH2" t="n">
-        <v>329.9891662597656</v>
+        <v>466.314453125</v>
       </c>
       <c r="EI2" t="n">
-        <v>333.7056884765625</v>
+        <v>481.3580322265625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>351.413330078125</v>
+        <v>484.942138671875</v>
       </c>
       <c r="EK2" t="n">
-        <v>345.6380004882812</v>
+        <v>485.6658935546875</v>
       </c>
       <c r="EL2" t="n">
-        <v>341.9896850585938</v>
+        <v>480.5404968261719</v>
       </c>
       <c r="EM2" t="n">
-        <v>356.5345458984375</v>
+        <v>480.5790405273438</v>
       </c>
       <c r="EN2" t="n">
-        <v>361.15771484375</v>
+        <v>491.80224609375</v>
       </c>
       <c r="EO2" t="n">
-        <v>361.8670654296875</v>
+        <v>498.0474243164062</v>
       </c>
       <c r="EP2" t="n">
-        <v>369.30078125</v>
+        <v>497.6103515625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303.3444213867188</v>
+        <v>502.78662109375</v>
       </c>
       <c r="ER2" t="n">
-        <v>301.2039184570312</v>
+        <v>506.2648315429688</v>
       </c>
       <c r="ES2" t="n">
-        <v>298.0323181152344</v>
+        <v>505.9500732421875</v>
       </c>
       <c r="ET2" t="n">
-        <v>301.2119140625</v>
+        <v>504.4828796386719</v>
       </c>
       <c r="EU2" t="n">
-        <v>303.1089477539062</v>
+        <v>504.32080078125</v>
       </c>
       <c r="EV2" t="n">
-        <v>306.2929382324219</v>
+        <v>505.5477294921875</v>
       </c>
       <c r="EW2" t="n">
-        <v>331.7359008789062</v>
+        <v>502.225341796875</v>
       </c>
       <c r="EX2" t="n">
-        <v>332.7763061523438</v>
+        <v>498.1341552734375</v>
       </c>
       <c r="EY2" t="n">
-        <v>330.6860961914062</v>
+        <v>494.1163635253906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>329.8486938476562</v>
+        <v>490.8057861328125</v>
       </c>
       <c r="FA2" t="n">
-        <v>314.3022766113281</v>
+        <v>488.9778137207031</v>
       </c>
       <c r="FB2" t="n">
-        <v>313.5778503417969</v>
+        <v>494.4285278320312</v>
       </c>
       <c r="FC2" t="n">
-        <v>320.3352355957031</v>
+        <v>501.0142822265625</v>
       </c>
       <c r="FD2" t="n">
-        <v>319.3164367675781</v>
+        <v>496.9048461914062</v>
       </c>
       <c r="FE2" t="n">
-        <v>318.6482543945312</v>
+        <v>492.92822265625</v>
       </c>
       <c r="FF2" t="n">
-        <v>316.905029296875</v>
+        <v>491.4987182617188</v>
       </c>
       <c r="FG2" t="n">
-        <v>319.0565490722656</v>
+        <v>484.951171875</v>
       </c>
       <c r="FH2" t="n">
-        <v>319.9637756347656</v>
+        <v>482.8404235839844</v>
       </c>
       <c r="FI2" t="n">
-        <v>319.2694396972656</v>
+        <v>473.720947265625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>319.3590087890625</v>
+        <v>471.9579467773438</v>
       </c>
       <c r="FK2" t="n">
-        <v>318.6786804199219</v>
+        <v>476.2175903320312</v>
       </c>
       <c r="FL2" t="n">
-        <v>319.4268798828125</v>
+        <v>473.7606201171875</v>
       </c>
       <c r="FM2" t="n">
-        <v>319.5421447753906</v>
+        <v>463.560546875</v>
       </c>
       <c r="FN2" t="n">
-        <v>307.5093688964844</v>
+        <v>457.7567749023438</v>
       </c>
       <c r="FO2" t="n">
-        <v>308.5342102050781</v>
+        <v>453.8747863769531</v>
       </c>
       <c r="FP2" t="n">
-        <v>300.51025390625</v>
+        <v>450.8892211914062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>314.1353759765625</v>
+        <v>450.611572265625</v>
       </c>
       <c r="FR2" t="n">
-        <v>318.17041015625</v>
+        <v>450.5361938476562</v>
       </c>
       <c r="FS2" t="n">
-        <v>305.6768493652344</v>
+        <v>450.89111328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>296.6097412109375</v>
+        <v>448.14404296875</v>
       </c>
       <c r="FU2" t="n">
-        <v>292.9291381835938</v>
+        <v>444.9825439453125</v>
       </c>
       <c r="FV2" t="n">
-        <v>302.5083923339844</v>
+        <v>441.1585998535156</v>
       </c>
       <c r="FW2" t="n">
-        <v>319.3941650390625</v>
+        <v>440.2716674804688</v>
       </c>
       <c r="FX2" t="n">
-        <v>319.4781799316406</v>
+        <v>439.7958068847656</v>
       </c>
       <c r="FY2" t="n">
-        <v>319.0104370117188</v>
+        <v>439.7162475585938</v>
       </c>
       <c r="FZ2" t="n">
-        <v>318.3822021484375</v>
+        <v>440.82666015625</v>
       </c>
       <c r="GA2" t="n">
-        <v>309.8293151855469</v>
+        <v>439.7598876953125</v>
       </c>
       <c r="GB2" t="n">
-        <v>300.2471923828125</v>
+        <v>430.3002319335938</v>
       </c>
       <c r="GC2" t="n">
-        <v>300.0185546875</v>
+        <v>425.7265625</v>
       </c>
       <c r="GD2" t="n">
-        <v>302.338623046875</v>
+        <v>419.6650390625</v>
       </c>
       <c r="GE2" t="n">
-        <v>300.4692687988281</v>
+        <v>416.1483764648438</v>
       </c>
       <c r="GF2" t="n">
-        <v>311.6659851074219</v>
+        <v>412.90771484375</v>
       </c>
       <c r="GG2" t="n">
-        <v>309.7130126953125</v>
+        <v>412.9306640625</v>
       </c>
       <c r="GH2" t="n">
-        <v>306.9407043457031</v>
+        <v>412.6672668457031</v>
       </c>
       <c r="GI2" t="n">
-        <v>308.9287414550781</v>
+        <v>411.3641967773438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>308.0303344726562</v>
+        <v>398.3937072753906</v>
       </c>
       <c r="GK2" t="n">
-        <v>307.884033203125</v>
+        <v>397.5634765625</v>
       </c>
       <c r="GL2" t="n">
-        <v>302.11083984375</v>
+        <v>396.1812133789062</v>
       </c>
       <c r="GM2" t="n">
-        <v>307.8187255859375</v>
+        <v>401.1600341796875</v>
       </c>
       <c r="GN2" t="n">
-        <v>308.9466857910156</v>
+        <v>393.0334777832031</v>
       </c>
       <c r="GO2" t="n">
-        <v>298.1563720703125</v>
+        <v>378.8692932128906</v>
       </c>
       <c r="GP2" t="n">
-        <v>297.3524169921875</v>
+        <v>400.2856750488281</v>
       </c>
       <c r="GQ2" t="n">
-        <v>299.8124084472656</v>
+        <v>381.8453979492188</v>
       </c>
       <c r="GR2" t="n">
-        <v>302.4488525390625</v>
+        <v>380.7874755859375</v>
       </c>
       <c r="GS2" t="n">
-        <v>287.8109436035156</v>
+        <v>383.943115234375</v>
       </c>
       <c r="GT2" t="n">
-        <v>272.7078247070312</v>
+        <v>380.9178466796875</v>
       </c>
       <c r="GU2" t="n">
-        <v>246.9652099609375</v>
+        <v>370.7533264160156</v>
       </c>
       <c r="GV2" t="n">
-        <v>280.8368835449219</v>
+        <v>363.9130249023438</v>
       </c>
       <c r="GW2" t="n">
-        <v>279.2879638671875</v>
+        <v>361.48583984375</v>
       </c>
       <c r="GX2" t="n">
-        <v>311.3807678222656</v>
+        <v>356.5858764648438</v>
       </c>
       <c r="GY2" t="n">
-        <v>310.8069763183594</v>
+        <v>356.419921875</v>
       </c>
       <c r="GZ2" t="n">
-        <v>303.6475524902344</v>
+        <v>356.3130493164062</v>
       </c>
       <c r="HA2" t="n">
-        <v>297.1797180175781</v>
+        <v>356.5941772460938</v>
       </c>
       <c r="HB2" t="n">
-        <v>294.91552734375</v>
+        <v>356.5667724609375</v>
       </c>
       <c r="HC2" t="n">
-        <v>293.6441040039062</v>
+        <v>355.8569030761719</v>
       </c>
       <c r="HD2" t="n">
-        <v>300.0896606445312</v>
+        <v>355.5443115234375</v>
       </c>
       <c r="HE2" t="n">
-        <v>307.9126281738281</v>
+        <v>357.0390014648438</v>
       </c>
       <c r="HF2" t="n">
-        <v>316.6781311035156</v>
+        <v>357.9027099609375</v>
       </c>
       <c r="HG2" t="n">
-        <v>317.2162170410156</v>
+        <v>356.8586730957031</v>
       </c>
       <c r="HH2" t="n">
-        <v>316.5781860351562</v>
+        <v>352.8662109375</v>
       </c>
       <c r="HI2" t="n">
-        <v>317.0287170410156</v>
+        <v>349.9745178222656</v>
       </c>
       <c r="HJ2" t="n">
-        <v>317.4070129394531</v>
+        <v>352.4576416015625</v>
       </c>
       <c r="HK2" t="n">
-        <v>316.64453125</v>
+        <v>366.717529296875</v>
       </c>
       <c r="HL2" t="n">
-        <v>313.4625854492188</v>
+        <v>390.357666015625</v>
       </c>
       <c r="HM2" t="n">
-        <v>309.4464111328125</v>
+        <v>397.9127502441406</v>
       </c>
       <c r="HN2" t="n">
-        <v>301.9730834960938</v>
+        <v>405.13037109375</v>
       </c>
       <c r="HO2" t="n">
-        <v>298.2146911621094</v>
+        <v>420.3195495605469</v>
       </c>
       <c r="HP2" t="n">
-        <v>297.3408813476562</v>
+        <v>422.7898559570312</v>
       </c>
       <c r="HQ2" t="n">
-        <v>301.0079345703125</v>
+        <v>419.4952392578125</v>
       </c>
       <c r="HR2" t="n">
-        <v>305.9580688476562</v>
+        <v>428.7698669433594</v>
       </c>
       <c r="HS2" t="n">
-        <v>306.2480773925781</v>
+        <v>430.7750854492188</v>
       </c>
       <c r="HT2" t="n">
-        <v>300.5357360839844</v>
+        <v>427.2503051757812</v>
       </c>
       <c r="HU2" t="n">
-        <v>298.3344116210938</v>
+        <v>419.3495483398438</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>418.8814697265625</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>418.0653076171875</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>418.8040161132812</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>418.1597900390625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>417.322021484375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>413.3284912109375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>416.6842346191406</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>417.9371643066406</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>424.6001586914062</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>425.6994018554688</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>427.5305786132812</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>430.7782592773438</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>427.0721130371094</v>
+      </c>
+      <c r="II2" t="n">
+        <v>411.6256713867188</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>414.4806518554688</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>427.2273559570312</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>429.9245910644531</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>408.5361022949219</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>395.4650268554688</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>394.8391418457031</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>388.7252502441406</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>392.2891235351562</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>370.2755126953125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>355.9842529296875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>352.0248718261719</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>352.7486877441406</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>356.0601806640625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>355.5781860351562</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>354.2184753417969</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>354.3189697265625</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>354.2621459960938</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>354.7578430175781</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>359.0599975585938</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>358.7743530273438</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>390.9000244140625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>386.8038330078125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>388.3521728515625</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>399.9856567382812</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>400.7662353515625</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>405.4101867675781</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>411.6637573242188</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>416.0278930664062</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>419.4415893554688</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>404.7766418457031</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>404.0957641601562</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>402.4313354492188</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>395.0263061523438</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>400.0384216308594</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>405.49169921875</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>406.3436279296875</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>410.8060913085938</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>409.907470703125</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>409.2471923828125</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>409.0098876953125</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>409.6982421875</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>409.8720703125</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>409.4613037109375</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>405.9903259277344</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>405.0783996582031</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>406.0093994140625</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>406.1878051757812</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>409.2196960449219</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>416.1748962402344</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>388.8440551757812</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>404.2870788574219</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>393.8350219726562</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>387.3952026367188</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>401.9651794433594</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>419.6194763183594</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>400.6375732421875</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>385.3998413085938</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>436.5551147460938</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>437.7218322753906</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>428.0102844238281</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>422.8438720703125</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>403.5088500976562</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>449.3011474609375</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>382.6071472167969</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>414.37548828125</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>407.6434631347656</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>414.0066833496094</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>411.9019165039062</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>397.800048828125</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>425.68017578125</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>427.1531372070312</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>434.0514831542969</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>456.7020263671875</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>462.4091796875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>441.5069580078125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>445.5275268554688</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>447.0312805175781</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>453.4042358398438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>458.1202697753906</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>467.1482543945312</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>470.9108276367188</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>477.4383239746094</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>519.0559692382812</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>525.3513793945312</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>504.2181701660156</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>418.7893981933594</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>426.5713806152344</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>438.3318481445312</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>418.2978820800781</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>560.7265014648438</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>567.5816040039062</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>562.6256713867188</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>561.446533203125</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>558.1993408203125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>545.058837890625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>523.0096435546875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>496.8876647949219</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>471.5113525390625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>438.0411987304688</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>418.2427368164062</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>413.3920593261719</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>407.6357421875</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>412.1669921875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>416.5643005371094</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>419.8328247070312</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>427.9530029296875</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>431.1635131835938</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>450.60888671875</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>451.7095336914062</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>455.2626342773438</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>458.3147888183594</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>455.6181335449219</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>427.4735107421875</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>411.8396606445312</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>434.8992614746094</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>430.7373657226562</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>370.6410217285156</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>367.7087707519531</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>362.2106323242188</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>394.3685913085938</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>408.933837890625</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>406.9538879394531</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>430.7017211914062</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>424.9322509765625</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>418.1271362304688</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>397.8768310546875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>311.8633117675781</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>415.8923950195312</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>427.413818359375</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>404.0252685546875</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>389.5523376464844</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>419.7857055664062</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>386.5408935546875</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>422.6839599609375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>861.4443359375</v>
+        <v>699.1104736328125</v>
       </c>
       <c r="B3" t="n">
-        <v>831.9470825195312</v>
+        <v>696.0829467773438</v>
       </c>
       <c r="C3" t="n">
-        <v>813.6189575195312</v>
+        <v>696.5382690429688</v>
       </c>
       <c r="D3" t="n">
-        <v>791.8662719726562</v>
+        <v>695.4525146484375</v>
       </c>
       <c r="E3" t="n">
-        <v>789.4541015625</v>
+        <v>694.96044921875</v>
       </c>
       <c r="F3" t="n">
-        <v>798.517578125</v>
+        <v>694.2500610351562</v>
       </c>
       <c r="G3" t="n">
-        <v>773.02001953125</v>
+        <v>692.9185791015625</v>
       </c>
       <c r="H3" t="n">
-        <v>814.3324584960938</v>
+        <v>690.7568359375</v>
       </c>
       <c r="I3" t="n">
-        <v>740.43212890625</v>
+        <v>685.5846557617188</v>
       </c>
       <c r="J3" t="n">
-        <v>785.1976318359375</v>
+        <v>679.347412109375</v>
       </c>
       <c r="K3" t="n">
-        <v>771.8230590820312</v>
+        <v>670.225830078125</v>
       </c>
       <c r="L3" t="n">
-        <v>729.2742919921875</v>
+        <v>665.1304321289062</v>
       </c>
       <c r="M3" t="n">
-        <v>746.94189453125</v>
+        <v>727.8623657226562</v>
       </c>
       <c r="N3" t="n">
-        <v>736.9818725585938</v>
+        <v>710.9474487304688</v>
       </c>
       <c r="O3" t="n">
-        <v>642.6452026367188</v>
+        <v>698.0301513671875</v>
       </c>
       <c r="P3" t="n">
-        <v>584.0181274414062</v>
+        <v>690.7982177734375</v>
       </c>
       <c r="Q3" t="n">
-        <v>572.1766357421875</v>
+        <v>689.4547119140625</v>
       </c>
       <c r="R3" t="n">
-        <v>561.2056274414062</v>
+        <v>687.2091674804688</v>
       </c>
       <c r="S3" t="n">
-        <v>556.2120971679688</v>
+        <v>686.3836669921875</v>
       </c>
       <c r="T3" t="n">
-        <v>576.2096557617188</v>
+        <v>679.586669921875</v>
       </c>
       <c r="U3" t="n">
-        <v>572.5307006835938</v>
+        <v>674.7991333007812</v>
       </c>
       <c r="V3" t="n">
-        <v>566.9581909179688</v>
+        <v>673.8868408203125</v>
       </c>
       <c r="W3" t="n">
-        <v>564.0130004882812</v>
+        <v>672.9174194335938</v>
       </c>
       <c r="X3" t="n">
-        <v>559.0042724609375</v>
+        <v>670.9002075195312</v>
       </c>
       <c r="Y3" t="n">
-        <v>551.1654052734375</v>
+        <v>686.2755737304688</v>
       </c>
       <c r="Z3" t="n">
-        <v>542.250244140625</v>
+        <v>698.0457153320312</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.6334838867188</v>
+        <v>698.1666259765625</v>
       </c>
       <c r="AB3" t="n">
-        <v>522.3447265625</v>
+        <v>686.01416015625</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.0265502929688</v>
+        <v>679.9154052734375</v>
       </c>
       <c r="AD3" t="n">
-        <v>506.4859619140625</v>
+        <v>626.0980224609375</v>
       </c>
       <c r="AE3" t="n">
-        <v>500.2227478027344</v>
+        <v>625.1547241210938</v>
       </c>
       <c r="AF3" t="n">
-        <v>495.9778442382812</v>
+        <v>620.6590576171875</v>
       </c>
       <c r="AG3" t="n">
-        <v>488.4255981445312</v>
+        <v>618.3775024414062</v>
       </c>
       <c r="AH3" t="n">
-        <v>481.0343017578125</v>
+        <v>604.889892578125</v>
       </c>
       <c r="AI3" t="n">
-        <v>475.6243591308594</v>
+        <v>654.7023315429688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>475.1199645996094</v>
+        <v>649.2703857421875</v>
       </c>
       <c r="AK3" t="n">
-        <v>472.9532775878906</v>
+        <v>653.1063232421875</v>
       </c>
       <c r="AL3" t="n">
-        <v>470.15576171875</v>
+        <v>656.8992309570312</v>
       </c>
       <c r="AM3" t="n">
-        <v>469.0186767578125</v>
+        <v>666.3375244140625</v>
       </c>
       <c r="AN3" t="n">
-        <v>465.892333984375</v>
+        <v>667.2921142578125</v>
       </c>
       <c r="AO3" t="n">
-        <v>456.5657958984375</v>
+        <v>669.801513671875</v>
       </c>
       <c r="AP3" t="n">
-        <v>445.6519165039062</v>
+        <v>673.127197265625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>444.3422546386719</v>
+        <v>677.0987548828125</v>
       </c>
       <c r="AR3" t="n">
-        <v>444.217041015625</v>
+        <v>678.1371459960938</v>
       </c>
       <c r="AS3" t="n">
-        <v>441.9623107910156</v>
+        <v>678.7627563476562</v>
       </c>
       <c r="AT3" t="n">
-        <v>438.0174255371094</v>
+        <v>679.5233764648438</v>
       </c>
       <c r="AU3" t="n">
-        <v>436.1488037109375</v>
+        <v>680.5928344726562</v>
       </c>
       <c r="AV3" t="n">
-        <v>431.8177490234375</v>
+        <v>678.7769165039062</v>
       </c>
       <c r="AW3" t="n">
-        <v>426.3488159179688</v>
+        <v>677.4613647460938</v>
       </c>
       <c r="AX3" t="n">
-        <v>420.9755249023438</v>
+        <v>679.0362548828125</v>
       </c>
       <c r="AY3" t="n">
-        <v>419.0566101074219</v>
+        <v>682.1715698242188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>418.6349182128906</v>
+        <v>685.2470703125</v>
       </c>
       <c r="BA3" t="n">
-        <v>418.7148132324219</v>
+        <v>689.1868896484375</v>
       </c>
       <c r="BB3" t="n">
-        <v>419.3779296875</v>
+        <v>692.5374755859375</v>
       </c>
       <c r="BC3" t="n">
-        <v>421.3363952636719</v>
+        <v>694.4430541992188</v>
       </c>
       <c r="BD3" t="n">
-        <v>420.9048767089844</v>
+        <v>695.0493774414062</v>
       </c>
       <c r="BE3" t="n">
-        <v>421.2066040039062</v>
+        <v>694.818603515625</v>
       </c>
       <c r="BF3" t="n">
-        <v>418.0316162109375</v>
+        <v>690.6495361328125</v>
       </c>
       <c r="BG3" t="n">
-        <v>417.633056640625</v>
+        <v>685.908203125</v>
       </c>
       <c r="BH3" t="n">
-        <v>415.5306396484375</v>
+        <v>680.90380859375</v>
       </c>
       <c r="BI3" t="n">
-        <v>411.4359436035156</v>
+        <v>676.5985717773438</v>
       </c>
       <c r="BJ3" t="n">
-        <v>408.1701049804688</v>
+        <v>675.0724487304688</v>
       </c>
       <c r="BK3" t="n">
-        <v>405.7070007324219</v>
+        <v>674.0159301757812</v>
       </c>
       <c r="BL3" t="n">
-        <v>405.427734375</v>
+        <v>675.7531127929688</v>
       </c>
       <c r="BM3" t="n">
-        <v>405.1675109863281</v>
+        <v>678.1146850585938</v>
       </c>
       <c r="BN3" t="n">
-        <v>405.4259338378906</v>
+        <v>680.120361328125</v>
       </c>
       <c r="BO3" t="n">
-        <v>398.9884643554688</v>
+        <v>689.57763671875</v>
       </c>
       <c r="BP3" t="n">
-        <v>399.1713562011719</v>
+        <v>694.47607421875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>391.0007934570312</v>
+        <v>698.2304077148438</v>
       </c>
       <c r="BR3" t="n">
-        <v>393.1356811523438</v>
+        <v>700.3662109375</v>
       </c>
       <c r="BS3" t="n">
-        <v>392.0770874023438</v>
+        <v>701.3674926757812</v>
       </c>
       <c r="BT3" t="n">
-        <v>392.1050109863281</v>
+        <v>701.31201171875</v>
       </c>
       <c r="BU3" t="n">
-        <v>392.3015747070312</v>
+        <v>703.5521240234375</v>
       </c>
       <c r="BV3" t="n">
-        <v>389.9316101074219</v>
+        <v>706.14501953125</v>
       </c>
       <c r="BW3" t="n">
-        <v>388.9865112304688</v>
+        <v>709.1461791992188</v>
       </c>
       <c r="BX3" t="n">
-        <v>387.0818786621094</v>
+        <v>710.1012573242188</v>
       </c>
       <c r="BY3" t="n">
-        <v>384.476318359375</v>
+        <v>712.1060180664062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>383.1054382324219</v>
+        <v>712.3372802734375</v>
       </c>
       <c r="CA3" t="n">
-        <v>386.1459350585938</v>
+        <v>708.12353515625</v>
       </c>
       <c r="CB3" t="n">
-        <v>386.0003662109375</v>
+        <v>705.4707641601562</v>
       </c>
       <c r="CC3" t="n">
-        <v>384.7326965332031</v>
+        <v>703.0470581054688</v>
       </c>
       <c r="CD3" t="n">
-        <v>383.361572265625</v>
+        <v>702.2440185546875</v>
       </c>
       <c r="CE3" t="n">
-        <v>380.6062316894531</v>
+        <v>703.202880859375</v>
       </c>
       <c r="CF3" t="n">
-        <v>381.2124633789062</v>
+        <v>703.9279174804688</v>
       </c>
       <c r="CG3" t="n">
-        <v>378.9649658203125</v>
+        <v>705.1548461914062</v>
       </c>
       <c r="CH3" t="n">
-        <v>378.79931640625</v>
+        <v>708.2317504882812</v>
       </c>
       <c r="CI3" t="n">
-        <v>377.4947814941406</v>
+        <v>710.3702392578125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>376.7099914550781</v>
+        <v>717.0455322265625</v>
       </c>
       <c r="CK3" t="n">
-        <v>377.0763549804688</v>
+        <v>720.5762939453125</v>
       </c>
       <c r="CL3" t="n">
-        <v>376.5547485351562</v>
+        <v>724.1592407226562</v>
       </c>
       <c r="CM3" t="n">
-        <v>376.8925476074219</v>
+        <v>724.4881591796875</v>
       </c>
       <c r="CN3" t="n">
-        <v>378.9890747070312</v>
+        <v>726.468505859375</v>
       </c>
       <c r="CO3" t="n">
-        <v>376.8994140625</v>
+        <v>726.4772338867188</v>
       </c>
       <c r="CP3" t="n">
-        <v>377.7655639648438</v>
+        <v>726.7527465820312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>378.5955200195312</v>
+        <v>728.10986328125</v>
       </c>
       <c r="CR3" t="n">
-        <v>379.3923034667969</v>
+        <v>728.3099365234375</v>
       </c>
       <c r="CS3" t="n">
-        <v>379.1740112304688</v>
+        <v>727.6697387695312</v>
       </c>
       <c r="CT3" t="n">
-        <v>381.4495544433594</v>
+        <v>728.316650390625</v>
       </c>
       <c r="CU3" t="n">
-        <v>379.8353271484375</v>
+        <v>728.7628784179688</v>
       </c>
       <c r="CV3" t="n">
-        <v>385.0565490722656</v>
+        <v>728.81396484375</v>
       </c>
       <c r="CW3" t="n">
-        <v>379.6469116210938</v>
+        <v>728.4502563476562</v>
       </c>
       <c r="CX3" t="n">
-        <v>373.7066345214844</v>
+        <v>727.9359741210938</v>
       </c>
       <c r="CY3" t="n">
-        <v>367.4245300292969</v>
+        <v>726.2235107421875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>359.92578125</v>
+        <v>723.6997680664062</v>
       </c>
       <c r="DA3" t="n">
-        <v>358.2742004394531</v>
+        <v>722.3641357421875</v>
       </c>
       <c r="DB3" t="n">
-        <v>356.6271362304688</v>
+        <v>722.0880737304688</v>
       </c>
       <c r="DC3" t="n">
-        <v>354.5274353027344</v>
+        <v>722.5558471679688</v>
       </c>
       <c r="DD3" t="n">
-        <v>356.1889038085938</v>
+        <v>722.2653198242188</v>
       </c>
       <c r="DE3" t="n">
-        <v>352.7049255371094</v>
+        <v>721.9981689453125</v>
       </c>
       <c r="DF3" t="n">
-        <v>359.2929992675781</v>
+        <v>720.838623046875</v>
       </c>
       <c r="DG3" t="n">
-        <v>360.3707885742188</v>
+        <v>720.4536743164062</v>
       </c>
       <c r="DH3" t="n">
-        <v>365.1412048339844</v>
+        <v>719.6478271484375</v>
       </c>
       <c r="DI3" t="n">
-        <v>367.5724792480469</v>
+        <v>716.5565185546875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>367.19287109375</v>
+        <v>711.905517578125</v>
       </c>
       <c r="DK3" t="n">
-        <v>373.1552429199219</v>
+        <v>711.7074584960938</v>
       </c>
       <c r="DL3" t="n">
-        <v>373.9656982421875</v>
+        <v>710.2639770507812</v>
       </c>
       <c r="DM3" t="n">
-        <v>374.7688903808594</v>
+        <v>708.5755615234375</v>
       </c>
       <c r="DN3" t="n">
-        <v>377.2403869628906</v>
+        <v>706.4724731445312</v>
       </c>
       <c r="DO3" t="n">
-        <v>380.8046264648438</v>
+        <v>705.8358154296875</v>
       </c>
       <c r="DP3" t="n">
-        <v>382.2122192382812</v>
+        <v>702.8073120117188</v>
       </c>
       <c r="DQ3" t="n">
-        <v>377.7478637695312</v>
+        <v>696.2139282226562</v>
       </c>
       <c r="DR3" t="n">
-        <v>368.4022216796875</v>
+        <v>694.6348876953125</v>
       </c>
       <c r="DS3" t="n">
-        <v>379.2008056640625</v>
+        <v>693.5707397460938</v>
       </c>
       <c r="DT3" t="n">
-        <v>374.1421813964844</v>
+        <v>691.5984497070312</v>
       </c>
       <c r="DU3" t="n">
-        <v>377.9978637695312</v>
+        <v>690.3744506835938</v>
       </c>
       <c r="DV3" t="n">
-        <v>375.0368957519531</v>
+        <v>689.4999389648438</v>
       </c>
       <c r="DW3" t="n">
-        <v>375.3782348632812</v>
+        <v>689.4716796875</v>
       </c>
       <c r="DX3" t="n">
-        <v>370.5045471191406</v>
+        <v>688.53662109375</v>
       </c>
       <c r="DY3" t="n">
-        <v>372.5934448242188</v>
+        <v>688.0078125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>369.6905822753906</v>
+        <v>690.4734497070312</v>
       </c>
       <c r="EA3" t="n">
-        <v>369.0203247070312</v>
+        <v>694.0759887695312</v>
       </c>
       <c r="EB3" t="n">
-        <v>370.1199645996094</v>
+        <v>692.2045288085938</v>
       </c>
       <c r="EC3" t="n">
-        <v>370.0097351074219</v>
+        <v>692.8717041015625</v>
       </c>
       <c r="ED3" t="n">
-        <v>372.4194946289062</v>
+        <v>692.6820678710938</v>
       </c>
       <c r="EE3" t="n">
-        <v>375.0206298828125</v>
+        <v>693.2233276367188</v>
       </c>
       <c r="EF3" t="n">
-        <v>368.6336669921875</v>
+        <v>692.540283203125</v>
       </c>
       <c r="EG3" t="n">
-        <v>373.3408508300781</v>
+        <v>677.9718017578125</v>
       </c>
       <c r="EH3" t="n">
-        <v>370.2522888183594</v>
+        <v>674.0813598632812</v>
       </c>
       <c r="EI3" t="n">
-        <v>375.8139343261719</v>
+        <v>664.5612182617188</v>
       </c>
       <c r="EJ3" t="n">
-        <v>388.7811889648438</v>
+        <v>661.0133666992188</v>
       </c>
       <c r="EK3" t="n">
-        <v>380.2983093261719</v>
+        <v>649.892578125</v>
       </c>
       <c r="EL3" t="n">
-        <v>364.1790466308594</v>
+        <v>644.989990234375</v>
       </c>
       <c r="EM3" t="n">
-        <v>386.7207946777344</v>
+        <v>637.1537475585938</v>
       </c>
       <c r="EN3" t="n">
-        <v>373.2709350585938</v>
+        <v>632.0335083007812</v>
       </c>
       <c r="EO3" t="n">
-        <v>359.2943725585938</v>
+        <v>636.9437866210938</v>
       </c>
       <c r="EP3" t="n">
-        <v>356.4154052734375</v>
+        <v>635.6700439453125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>374.40283203125</v>
+        <v>630.1452026367188</v>
       </c>
       <c r="ER3" t="n">
-        <v>375.75927734375</v>
+        <v>628.3316650390625</v>
       </c>
       <c r="ES3" t="n">
-        <v>375.1205139160156</v>
+        <v>629.8773803710938</v>
       </c>
       <c r="ET3" t="n">
-        <v>376.0685424804688</v>
+        <v>629.3900146484375</v>
       </c>
       <c r="EU3" t="n">
-        <v>377.2845764160156</v>
+        <v>622.760498046875</v>
       </c>
       <c r="EV3" t="n">
-        <v>379.4915466308594</v>
+        <v>615.5829467773438</v>
       </c>
       <c r="EW3" t="n">
-        <v>388.774169921875</v>
+        <v>598.1522216796875</v>
       </c>
       <c r="EX3" t="n">
-        <v>390.0115661621094</v>
+        <v>587.651123046875</v>
       </c>
       <c r="EY3" t="n">
-        <v>394.0729370117188</v>
+        <v>581.1094970703125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>394.9390563964844</v>
+        <v>574.2962646484375</v>
       </c>
       <c r="FA3" t="n">
-        <v>392.3828430175781</v>
+        <v>567.4397583007812</v>
       </c>
       <c r="FB3" t="n">
-        <v>390.0315856933594</v>
+        <v>571.6975708007812</v>
       </c>
       <c r="FC3" t="n">
-        <v>382.7341003417969</v>
+        <v>574.2400512695312</v>
       </c>
       <c r="FD3" t="n">
-        <v>380.78955078125</v>
+        <v>572.57861328125</v>
       </c>
       <c r="FE3" t="n">
-        <v>379.8404235839844</v>
+        <v>568.5184936523438</v>
       </c>
       <c r="FF3" t="n">
-        <v>368.2448120117188</v>
+        <v>564.8840942382812</v>
       </c>
       <c r="FG3" t="n">
-        <v>364.2452087402344</v>
+        <v>558.377197265625</v>
       </c>
       <c r="FH3" t="n">
-        <v>365.4310913085938</v>
+        <v>556.4267578125</v>
       </c>
       <c r="FI3" t="n">
-        <v>365.9820251464844</v>
+        <v>552.8150024414062</v>
       </c>
       <c r="FJ3" t="n">
-        <v>372.0169982910156</v>
+        <v>547.9976806640625</v>
       </c>
       <c r="FK3" t="n">
-        <v>372.3547668457031</v>
+        <v>541.0532836914062</v>
       </c>
       <c r="FL3" t="n">
-        <v>372.628662109375</v>
+        <v>538.7116088867188</v>
       </c>
       <c r="FM3" t="n">
-        <v>377.1257934570312</v>
+        <v>531.0156860351562</v>
       </c>
       <c r="FN3" t="n">
-        <v>381.9326171875</v>
+        <v>526.5930786132812</v>
       </c>
       <c r="FO3" t="n">
-        <v>381.1709289550781</v>
+        <v>523.9236450195312</v>
       </c>
       <c r="FP3" t="n">
-        <v>359.0741882324219</v>
+        <v>519.164794921875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>399.6058044433594</v>
+        <v>523.2041625976562</v>
       </c>
       <c r="FR3" t="n">
-        <v>392.2610168457031</v>
+        <v>525.650634765625</v>
       </c>
       <c r="FS3" t="n">
-        <v>378.9102172851562</v>
+        <v>527.7101440429688</v>
       </c>
       <c r="FT3" t="n">
-        <v>380.0766906738281</v>
+        <v>523.224365234375</v>
       </c>
       <c r="FU3" t="n">
-        <v>375.8059997558594</v>
+        <v>522.5043334960938</v>
       </c>
       <c r="FV3" t="n">
-        <v>369.3626098632812</v>
+        <v>523.6509399414062</v>
       </c>
       <c r="FW3" t="n">
-        <v>386.3990783691406</v>
+        <v>522.3328247070312</v>
       </c>
       <c r="FX3" t="n">
-        <v>383.5155334472656</v>
+        <v>522.6172485351562</v>
       </c>
       <c r="FY3" t="n">
-        <v>383.4044494628906</v>
+        <v>522.8956909179688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>386.8760681152344</v>
+        <v>523.4093017578125</v>
       </c>
       <c r="GA3" t="n">
-        <v>378.4620971679688</v>
+        <v>522.4435424804688</v>
       </c>
       <c r="GB3" t="n">
-        <v>373.0148315429688</v>
+        <v>519.8912963867188</v>
       </c>
       <c r="GC3" t="n">
-        <v>376.8706359863281</v>
+        <v>517.1331787109375</v>
       </c>
       <c r="GD3" t="n">
-        <v>382.6844177246094</v>
+        <v>516.5067749023438</v>
       </c>
       <c r="GE3" t="n">
-        <v>375.3091430664062</v>
+        <v>514.9345092773438</v>
       </c>
       <c r="GF3" t="n">
-        <v>386.8259887695312</v>
+        <v>513.2713012695312</v>
       </c>
       <c r="GG3" t="n">
-        <v>390.7313537597656</v>
+        <v>513.5010375976562</v>
       </c>
       <c r="GH3" t="n">
-        <v>388.1829833984375</v>
+        <v>512.8279418945312</v>
       </c>
       <c r="GI3" t="n">
-        <v>402.858154296875</v>
+        <v>512.6724243164062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>395.9231872558594</v>
+        <v>494.5076904296875</v>
       </c>
       <c r="GK3" t="n">
-        <v>363.77001953125</v>
+        <v>488.3957824707031</v>
       </c>
       <c r="GL3" t="n">
-        <v>385.7294311523438</v>
+        <v>492.3410339355469</v>
       </c>
       <c r="GM3" t="n">
-        <v>403.4006958007812</v>
+        <v>487.5714721679688</v>
       </c>
       <c r="GN3" t="n">
-        <v>398.3271789550781</v>
+        <v>474.5486450195312</v>
       </c>
       <c r="GO3" t="n">
-        <v>396.68505859375</v>
+        <v>467.5745849609375</v>
       </c>
       <c r="GP3" t="n">
-        <v>398.0837097167969</v>
+        <v>514.987060546875</v>
       </c>
       <c r="GQ3" t="n">
-        <v>398.5970153808594</v>
+        <v>513.5731811523438</v>
       </c>
       <c r="GR3" t="n">
-        <v>396.7008972167969</v>
+        <v>509.9532470703125</v>
       </c>
       <c r="GS3" t="n">
-        <v>396.1989440917969</v>
+        <v>506.7255554199219</v>
       </c>
       <c r="GT3" t="n">
-        <v>393.6087951660156</v>
+        <v>505.5338134765625</v>
       </c>
       <c r="GU3" t="n">
-        <v>373.6925964355469</v>
+        <v>501.9475402832031</v>
       </c>
       <c r="GV3" t="n">
-        <v>385.8057556152344</v>
+        <v>501.6022033691406</v>
       </c>
       <c r="GW3" t="n">
-        <v>370.9525451660156</v>
+        <v>503.0252380371094</v>
       </c>
       <c r="GX3" t="n">
-        <v>469.2855529785156</v>
+        <v>500.982177734375</v>
       </c>
       <c r="GY3" t="n">
-        <v>478.5620727539062</v>
+        <v>500.4790344238281</v>
       </c>
       <c r="GZ3" t="n">
-        <v>483.4614868164062</v>
+        <v>501.5436706542969</v>
       </c>
       <c r="HA3" t="n">
-        <v>483.1609191894531</v>
+        <v>501.4286499023438</v>
       </c>
       <c r="HB3" t="n">
-        <v>493.7763366699219</v>
+        <v>500.6064147949219</v>
       </c>
       <c r="HC3" t="n">
-        <v>504.590087890625</v>
+        <v>496.9443969726562</v>
       </c>
       <c r="HD3" t="n">
-        <v>521.4266967773438</v>
+        <v>496.1671752929688</v>
       </c>
       <c r="HE3" t="n">
-        <v>529.2083129882812</v>
+        <v>497.8229064941406</v>
       </c>
       <c r="HF3" t="n">
-        <v>528.6433715820312</v>
+        <v>498.2039489746094</v>
       </c>
       <c r="HG3" t="n">
-        <v>535.9351806640625</v>
+        <v>499.1534729003906</v>
       </c>
       <c r="HH3" t="n">
-        <v>549.9774780273438</v>
+        <v>502.4442138671875</v>
       </c>
       <c r="HI3" t="n">
-        <v>558.9453125</v>
+        <v>501.3060302734375</v>
       </c>
       <c r="HJ3" t="n">
-        <v>572.9290771484375</v>
+        <v>503.5150756835938</v>
       </c>
       <c r="HK3" t="n">
-        <v>589.0193481445312</v>
+        <v>503.7205200195312</v>
       </c>
       <c r="HL3" t="n">
-        <v>607.8082275390625</v>
+        <v>513.6928100585938</v>
       </c>
       <c r="HM3" t="n">
-        <v>631.3263549804688</v>
+        <v>522.8989868164062</v>
       </c>
       <c r="HN3" t="n">
-        <v>661.8425903320312</v>
+        <v>527.1895751953125</v>
       </c>
       <c r="HO3" t="n">
-        <v>679.022216796875</v>
+        <v>494.197998046875</v>
       </c>
       <c r="HP3" t="n">
-        <v>699.3704223632812</v>
+        <v>498.3607177734375</v>
       </c>
       <c r="HQ3" t="n">
-        <v>722.0093383789062</v>
+        <v>486.6167907714844</v>
       </c>
       <c r="HR3" t="n">
-        <v>755.1952514648438</v>
+        <v>479.9314270019531</v>
       </c>
       <c r="HS3" t="n">
-        <v>799.6399536132812</v>
+        <v>490.7835388183594</v>
       </c>
       <c r="HT3" t="n">
-        <v>865.06103515625</v>
+        <v>492.2976989746094</v>
       </c>
       <c r="HU3" t="n">
-        <v>905.5394897460938</v>
+        <v>477.2857055664062</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>474.6591491699219</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>473.0825805664062</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>478.6182861328125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>475.6670837402344</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>474.219482421875</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>479.7527160644531</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>486.6701965332031</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>481.4629516601562</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>470.9737854003906</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>468.1600341796875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>469.9830017089844</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>472.7184143066406</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>472.4039306640625</v>
+      </c>
+      <c r="II3" t="n">
+        <v>475.4200439453125</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>479.8022766113281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>499.41748046875</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>492.9757080078125</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>478.5014343261719</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>477.1087646484375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>528.998291015625</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>527.5680541992188</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>520.8228759765625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>523.5183715820312</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>519.8977661132812</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>519.079345703125</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>518.1249389648438</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>518.4555053710938</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>518.510498046875</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>517.3604736328125</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>517.8101806640625</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>518.0123901367188</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>519.3837890625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>519.16259765625</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>520.9630126953125</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>519.6264038085938</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>524.063720703125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>525.479248046875</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>528.1599731445312</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>531.0187377929688</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>531.6807861328125</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>532.3989868164062</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>531.5564575195312</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>531.6024169921875</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>485.5403747558594</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>484.3018188476562</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>487.6361389160156</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>484.72119140625</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>468.8839416503906</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>479.9748840332031</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>492.3234558105469</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>479.4308471679688</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>483.3460693359375</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>486.4149169921875</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>487.6952819824219</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>487.434326171875</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>487.7948608398438</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>486.5122680664062</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>490.381103515625</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>494.7490844726562</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>499.157470703125</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>491.9125671386719</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>498.7212829589844</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>520.98779296875</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>508.3237915039062</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>489.9859313964844</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>491.0856018066406</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>486.9260864257812</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>512.6661987304688</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>522.8031616210938</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>511.7974243164062</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>485.0142211914062</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>492.0293579101562</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>509.5446472167969</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>505.8350830078125</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>486.3452758789062</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>520.9938354492188</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>475.8946533203125</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>484.9013366699219</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>493.6678466796875</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>486.1059875488281</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>512.9622802734375</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>486.2278137207031</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>493.9806213378906</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>534.601806640625</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>536.6693725585938</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>540.526611328125</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>543.9760131835938</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>545.367431640625</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>530.1383056640625</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>539.4270629882812</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>546.5956420898438</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>560.2260131835938</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>568.597900390625</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>577.591064453125</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>593.1209716796875</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>599.1314697265625</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>646.971435546875</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>656.7280883789062</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>670.1830444335938</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>622.1864624023438</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>648.4466552734375</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>682.5231323242188</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>692.272705078125</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>746.8750610351562</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>785.9008178710938</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>972.143798828125</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>825.1962280273438</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>854.0380859375</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>890.9947509765625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>936.2783813476562</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>946.130859375</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>943.0301513671875</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>862.4845581054688</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>805.272705078125</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>785.6776123046875</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>789.5357055664062</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>798.7561645507812</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>799.5042724609375</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>817.1080322265625</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>843.3741455078125</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>868.3892211914062</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>881.296875</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>858.373046875</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>850.3140258789062</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>854.8432006835938</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>857.0875244140625</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>877.4451293945312</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>986.9581298828125</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>1093.712768554688</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>1103.495483398438</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>1095.826416015625</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>1094.37060546875</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>1131.99267578125</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>1133.416625976562</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>1132.809814453125</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>1143.5126953125</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>1109.5634765625</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>1149.004150390625</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>1167.652587890625</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>1226.309204101562</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>1253.9482421875</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>1285.938232421875</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>1260.030883789062</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>1268.979370117188</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>1251.424438476562</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>1146.958129882812</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>1206.264404296875</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>1191.117919921875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>798.3926391601562</v>
+        <v>1036.720458984375</v>
       </c>
       <c r="B4" t="n">
-        <v>825.85107421875</v>
+        <v>1031.981201171875</v>
       </c>
       <c r="C4" t="n">
-        <v>851.1813354492188</v>
+        <v>1032.684692382812</v>
       </c>
       <c r="D4" t="n">
-        <v>882.2257690429688</v>
+        <v>1033.931762695312</v>
       </c>
       <c r="E4" t="n">
-        <v>916.3443603515625</v>
+        <v>1035.186889648438</v>
       </c>
       <c r="F4" t="n">
-        <v>890.7291870117188</v>
+        <v>1036.445434570312</v>
       </c>
       <c r="G4" t="n">
-        <v>967.1566772460938</v>
+        <v>1038.571655273438</v>
       </c>
       <c r="H4" t="n">
-        <v>894.656982421875</v>
+        <v>1041.964111328125</v>
       </c>
       <c r="I4" t="n">
-        <v>1004.089782714844</v>
+        <v>1050.42822265625</v>
       </c>
       <c r="J4" t="n">
-        <v>960.330322265625</v>
+        <v>1066.005981445312</v>
       </c>
       <c r="K4" t="n">
-        <v>993.64990234375</v>
+        <v>1087.499145507812</v>
       </c>
       <c r="L4" t="n">
-        <v>1085.1484375</v>
+        <v>1102.264404296875</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.183227539062</v>
+        <v>942.38525390625</v>
       </c>
       <c r="N4" t="n">
-        <v>1100.846923828125</v>
+        <v>964.2960815429688</v>
       </c>
       <c r="O4" t="n">
-        <v>1298.570556640625</v>
+        <v>1009.984680175781</v>
       </c>
       <c r="P4" t="n">
-        <v>1339.744262695312</v>
+        <v>1015.095397949219</v>
       </c>
       <c r="Q4" t="n">
-        <v>1373.258911132812</v>
+        <v>1001.142150878906</v>
       </c>
       <c r="R4" t="n">
-        <v>1412.232788085938</v>
+        <v>1006.73876953125</v>
       </c>
       <c r="S4" t="n">
-        <v>1445.353881835938</v>
+        <v>1006.475402832031</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.046020507812</v>
+        <v>1009.996459960938</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.614379882812</v>
+        <v>1019.962768554688</v>
       </c>
       <c r="V4" t="n">
-        <v>1364.26123046875</v>
+        <v>1029.09375</v>
       </c>
       <c r="W4" t="n">
-        <v>1404.461547851562</v>
+        <v>1025.507690429688</v>
       </c>
       <c r="X4" t="n">
-        <v>1426.020629882812</v>
+        <v>1048.927856445312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1433.2705078125</v>
+        <v>1024.68896484375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1441.64208984375</v>
+        <v>999.1583251953125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1480.08642578125</v>
+        <v>993.1671142578125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1550.18359375</v>
+        <v>1072.683349609375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1603.919799804688</v>
+        <v>1088.54150390625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1641.619384765625</v>
+        <v>1291.733520507812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1690.702758789062</v>
+        <v>1296.904296875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1725.265869140625</v>
+        <v>1307.98828125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1758.09912109375</v>
+        <v>1315.254272460938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1801.186767578125</v>
+        <v>1346.175659179688</v>
       </c>
       <c r="AI4" t="n">
-        <v>1847.879638671875</v>
+        <v>1076.960571289062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1912.843872070312</v>
+        <v>1086.488037109375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1939.041137695312</v>
+        <v>1073.25439453125</v>
       </c>
       <c r="AL4" t="n">
-        <v>2000.997314453125</v>
+        <v>1067.081665039062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2109.264892578125</v>
+        <v>1051.352294921875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2148.762451171875</v>
+        <v>1046.48291015625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2298.18603515625</v>
+        <v>1039.605834960938</v>
       </c>
       <c r="AP4" t="n">
-        <v>2425.45166015625</v>
+        <v>1036.061279296875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2444.099365234375</v>
+        <v>1034.854248046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>2435.6494140625</v>
+        <v>1041.348388671875</v>
       </c>
       <c r="AS4" t="n">
-        <v>2457.79248046875</v>
+        <v>1044.106689453125</v>
       </c>
       <c r="AT4" t="n">
-        <v>2511.048583984375</v>
+        <v>1048.259643554688</v>
       </c>
       <c r="AU4" t="n">
-        <v>2522.600341796875</v>
+        <v>1049.232788085938</v>
       </c>
       <c r="AV4" t="n">
-        <v>2563.262451171875</v>
+        <v>1054.788452148438</v>
       </c>
       <c r="AW4" t="n">
-        <v>2606.8720703125</v>
+        <v>1056.032836914062</v>
       </c>
       <c r="AX4" t="n">
-        <v>2670.788818359375</v>
+        <v>1055.055297851562</v>
       </c>
       <c r="AY4" t="n">
-        <v>2694.275634765625</v>
+        <v>1052.08984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2702.435302734375</v>
+        <v>1048.876220703125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2726.468505859375</v>
+        <v>1043.439819335938</v>
       </c>
       <c r="BB4" t="n">
-        <v>2753.83447265625</v>
+        <v>1032.009765625</v>
       </c>
       <c r="BC4" t="n">
-        <v>2759.59619140625</v>
+        <v>1022.48828125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2787.237060546875</v>
+        <v>1021.195495605469</v>
       </c>
       <c r="BE4" t="n">
-        <v>2782.42919921875</v>
+        <v>1019.641845703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>2818.199462890625</v>
+        <v>1020.287841796875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2830.8623046875</v>
+        <v>1022.083740234375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2832.90966796875</v>
+        <v>1027.275512695312</v>
       </c>
       <c r="BI4" t="n">
-        <v>2859.997314453125</v>
+        <v>1032.22216796875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2898.16845703125</v>
+        <v>1035.9296875</v>
       </c>
       <c r="BK4" t="n">
-        <v>2953.5849609375</v>
+        <v>1044.260620117188</v>
       </c>
       <c r="BL4" t="n">
-        <v>2980.101806640625</v>
+        <v>1049.376220703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3019.66064453125</v>
+        <v>1050.306518554688</v>
       </c>
       <c r="BN4" t="n">
-        <v>3062.154296875</v>
+        <v>1047.895874023438</v>
       </c>
       <c r="BO4" t="n">
-        <v>3072.264892578125</v>
+        <v>1012.275146484375</v>
       </c>
       <c r="BP4" t="n">
-        <v>3114.2001953125</v>
+        <v>992.7572021484375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3144.5712890625</v>
+        <v>983.443115234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3158.579345703125</v>
+        <v>977.926025390625</v>
       </c>
       <c r="BS4" t="n">
-        <v>3214.6279296875</v>
+        <v>974.667724609375</v>
       </c>
       <c r="BT4" t="n">
-        <v>3229.957275390625</v>
+        <v>973.628662109375</v>
       </c>
       <c r="BU4" t="n">
-        <v>3231.8662109375</v>
+        <v>970.3587646484375</v>
       </c>
       <c r="BV4" t="n">
-        <v>3245.4794921875</v>
+        <v>965.1100463867188</v>
       </c>
       <c r="BW4" t="n">
-        <v>3284.66650390625</v>
+        <v>957.6611328125</v>
       </c>
       <c r="BX4" t="n">
-        <v>3377.33447265625</v>
+        <v>959.768310546875</v>
       </c>
       <c r="BY4" t="n">
-        <v>3424.096923828125</v>
+        <v>959.5638427734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3465.727294921875</v>
+        <v>962.7127685546875</v>
       </c>
       <c r="CA4" t="n">
-        <v>3453.614990234375</v>
+        <v>970.91552734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>3500.651123046875</v>
+        <v>975.22216796875</v>
       </c>
       <c r="CC4" t="n">
-        <v>3446.446533203125</v>
+        <v>976.9403076171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>3452.9775390625</v>
+        <v>977.6144409179688</v>
       </c>
       <c r="CE4" t="n">
-        <v>3487.422607421875</v>
+        <v>975.2245483398438</v>
       </c>
       <c r="CF4" t="n">
-        <v>3518.874267578125</v>
+        <v>974.2639770507812</v>
       </c>
       <c r="CG4" t="n">
-        <v>3603.272216796875</v>
+        <v>973.20556640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>3652.110595703125</v>
+        <v>968.9613037109375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3660.6533203125</v>
+        <v>961.879638671875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3608.8056640625</v>
+        <v>945.6875</v>
       </c>
       <c r="CK4" t="n">
-        <v>3663.853515625</v>
+        <v>937.1615600585938</v>
       </c>
       <c r="CL4" t="n">
-        <v>3711.969970703125</v>
+        <v>926.3871459960938</v>
       </c>
       <c r="CM4" t="n">
-        <v>3693.791015625</v>
+        <v>925.5838623046875</v>
       </c>
       <c r="CN4" t="n">
-        <v>3701.78515625</v>
+        <v>922.6333618164062</v>
       </c>
       <c r="CO4" t="n">
-        <v>3742.626953125</v>
+        <v>924.542236328125</v>
       </c>
       <c r="CP4" t="n">
-        <v>3707.75927734375</v>
+        <v>926.4317626953125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3661.304931640625</v>
+        <v>924.2984619140625</v>
       </c>
       <c r="CR4" t="n">
-        <v>3697.8564453125</v>
+        <v>925.9627075195312</v>
       </c>
       <c r="CS4" t="n">
-        <v>3622.40185546875</v>
+        <v>930.9730834960938</v>
       </c>
       <c r="CT4" t="n">
-        <v>3606.39697265625</v>
+        <v>930.0345458984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>3571.0888671875</v>
+        <v>929.4693603515625</v>
       </c>
       <c r="CV4" t="n">
-        <v>3543.89306640625</v>
+        <v>928.5933837890625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3617.704833984375</v>
+        <v>927.6050415039062</v>
       </c>
       <c r="CX4" t="n">
-        <v>3576.525146484375</v>
+        <v>925.1068115234375</v>
       </c>
       <c r="CY4" t="n">
-        <v>3589.30419921875</v>
+        <v>925.7855224609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3459.9248046875</v>
+        <v>927.2791748046875</v>
       </c>
       <c r="DA4" t="n">
-        <v>3473.6728515625</v>
+        <v>928.158935546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>3475.1826171875</v>
+        <v>928.857666015625</v>
       </c>
       <c r="DC4" t="n">
-        <v>3476.03076171875</v>
+        <v>928.663818359375</v>
       </c>
       <c r="DD4" t="n">
-        <v>3517.076171875</v>
+        <v>929.3016357421875</v>
       </c>
       <c r="DE4" t="n">
-        <v>3404.379638671875</v>
+        <v>930.2129516601562</v>
       </c>
       <c r="DF4" t="n">
-        <v>3444.16162109375</v>
+        <v>929.7302856445312</v>
       </c>
       <c r="DG4" t="n">
-        <v>3505.2373046875</v>
+        <v>928.1676025390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3457.203125</v>
+        <v>925.5400390625</v>
       </c>
       <c r="DI4" t="n">
-        <v>3470.51953125</v>
+        <v>925.8793334960938</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3476.12841796875</v>
+        <v>925.5771484375</v>
       </c>
       <c r="DK4" t="n">
-        <v>3526.94384765625</v>
+        <v>923.923583984375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3561.266357421875</v>
+        <v>925.872802734375</v>
       </c>
       <c r="DM4" t="n">
-        <v>3579.10498046875</v>
+        <v>928.7545166015625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3628.05419921875</v>
+        <v>934.90478515625</v>
       </c>
       <c r="DO4" t="n">
-        <v>3576.812255859375</v>
+        <v>947.8292236328125</v>
       </c>
       <c r="DP4" t="n">
-        <v>3627.19775390625</v>
+        <v>968.5574951171875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3660.207763671875</v>
+        <v>995.462646484375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3685.755859375</v>
+        <v>998.3743286132812</v>
       </c>
       <c r="DS4" t="n">
-        <v>3547.3359375</v>
+        <v>1000.557678222656</v>
       </c>
       <c r="DT4" t="n">
-        <v>3591.541259765625</v>
+        <v>1005.129150390625</v>
       </c>
       <c r="DU4" t="n">
-        <v>3557.095458984375</v>
+        <v>1007.454467773438</v>
       </c>
       <c r="DV4" t="n">
-        <v>3628.39453125</v>
+        <v>1008.876525878906</v>
       </c>
       <c r="DW4" t="n">
-        <v>3624.60009765625</v>
+        <v>1010.053833007812</v>
       </c>
       <c r="DX4" t="n">
-        <v>3625.416259765625</v>
+        <v>1011.397094726562</v>
       </c>
       <c r="DY4" t="n">
-        <v>3603.15869140625</v>
+        <v>1013.588500976562</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3605.28564453125</v>
+        <v>1014.703735351562</v>
       </c>
       <c r="EA4" t="n">
-        <v>3598.22900390625</v>
+        <v>1013.160522460938</v>
       </c>
       <c r="EB4" t="n">
-        <v>3595.363525390625</v>
+        <v>1018.325805664062</v>
       </c>
       <c r="EC4" t="n">
-        <v>3413.18017578125</v>
+        <v>1016.943054199219</v>
       </c>
       <c r="ED4" t="n">
-        <v>3515.388671875</v>
+        <v>1016.577026367188</v>
       </c>
       <c r="EE4" t="n">
-        <v>3514.125</v>
+        <v>1016.218017578125</v>
       </c>
       <c r="EF4" t="n">
-        <v>3645.351806640625</v>
+        <v>1026.227661132812</v>
       </c>
       <c r="EG4" t="n">
-        <v>3658.769775390625</v>
+        <v>1074.190673828125</v>
       </c>
       <c r="EH4" t="n">
-        <v>3681.580078125</v>
+        <v>1084.458740234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>3619.45166015625</v>
+        <v>1109.89599609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3487.79736328125</v>
+        <v>1119.711059570312</v>
       </c>
       <c r="EK4" t="n">
-        <v>3586.4423828125</v>
+        <v>1155.797607421875</v>
       </c>
       <c r="EL4" t="n">
-        <v>3549.99658203125</v>
+        <v>1172.251953125</v>
       </c>
       <c r="EM4" t="n">
-        <v>3083.4033203125</v>
+        <v>1189.665161132812</v>
       </c>
       <c r="EN4" t="n">
-        <v>3057.340576171875</v>
+        <v>1202.121704101562</v>
       </c>
       <c r="EO4" t="n">
-        <v>3027.2294921875</v>
+        <v>1210.894775390625</v>
       </c>
       <c r="EP4" t="n">
-        <v>3009.101318359375</v>
+        <v>1212.473266601562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3256.07373046875</v>
+        <v>1240.535888671875</v>
       </c>
       <c r="ER4" t="n">
-        <v>3219.0927734375</v>
+        <v>1252.089965820312</v>
       </c>
       <c r="ES4" t="n">
-        <v>3232.11328125</v>
+        <v>1258.22607421875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3240.783203125</v>
+        <v>1262.205810546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>3234.298095703125</v>
+        <v>1281.24169921875</v>
       </c>
       <c r="EV4" t="n">
-        <v>3244.549072265625</v>
+        <v>1322.792358398438</v>
       </c>
       <c r="EW4" t="n">
-        <v>3341.007568359375</v>
+        <v>1385.331787109375</v>
       </c>
       <c r="EX4" t="n">
-        <v>3356.9521484375</v>
+        <v>1410.732543945312</v>
       </c>
       <c r="EY4" t="n">
-        <v>3364.634033203125</v>
+        <v>1445.040161132812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3350.75244140625</v>
+        <v>1473.617919921875</v>
       </c>
       <c r="FA4" t="n">
-        <v>3223.197509765625</v>
+        <v>1512.8681640625</v>
       </c>
       <c r="FB4" t="n">
-        <v>3293.01513671875</v>
+        <v>1517.307250976562</v>
       </c>
       <c r="FC4" t="n">
-        <v>3440.299560546875</v>
+        <v>1531.598388671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>3413.13916015625</v>
+        <v>1615.209106445312</v>
       </c>
       <c r="FE4" t="n">
-        <v>3398.04541015625</v>
+        <v>1656.436279296875</v>
       </c>
       <c r="FF4" t="n">
-        <v>3572.916015625</v>
+        <v>1678.270263671875</v>
       </c>
       <c r="FG4" t="n">
-        <v>3564.704345703125</v>
+        <v>1764.890625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3580.955810546875</v>
+        <v>1802.895263671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>3598.879150390625</v>
+        <v>1801.904541015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3561.392578125</v>
+        <v>1825.961059570312</v>
       </c>
       <c r="FK4" t="n">
-        <v>3628.4296875</v>
+        <v>1873.908447265625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3628.47265625</v>
+        <v>1893.935424804688</v>
       </c>
       <c r="FM4" t="n">
-        <v>3612.702392578125</v>
+        <v>1980.645263671875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3618.5625</v>
+        <v>2022.049072265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3582.094482421875</v>
+        <v>2058.2509765625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3549.198974609375</v>
+        <v>2109.34033203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3192.84130859375</v>
+        <v>2110.029541015625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3117.08447265625</v>
+        <v>2094.61669921875</v>
       </c>
       <c r="FS4" t="n">
-        <v>3426.740234375</v>
+        <v>2074.20703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>3219.49072265625</v>
+        <v>2081.500732421875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3294.02685546875</v>
+        <v>2105.12890625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3506.09423828125</v>
+        <v>2098.03369140625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3302.049560546875</v>
+        <v>2094.761962890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3317.142822265625</v>
+        <v>2091.69970703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3304.954345703125</v>
+        <v>2095.628662109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3282.086669921875</v>
+        <v>2081.25</v>
       </c>
       <c r="GA4" t="n">
-        <v>3300.939453125</v>
+        <v>2086.25341796875</v>
       </c>
       <c r="GB4" t="n">
-        <v>3370.57763671875</v>
+        <v>2091.498046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3311.88623046875</v>
+        <v>2092.68603515625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3241.172119140625</v>
+        <v>2107.66552734375</v>
       </c>
       <c r="GE4" t="n">
-        <v>3263.696533203125</v>
+        <v>2094.726318359375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3146.87744140625</v>
+        <v>2113.820556640625</v>
       </c>
       <c r="GG4" t="n">
-        <v>3117.0283203125</v>
+        <v>2114.10791015625</v>
       </c>
       <c r="GH4" t="n">
-        <v>3158.565185546875</v>
+        <v>2119.808349609375</v>
       </c>
       <c r="GI4" t="n">
-        <v>3036.436279296875</v>
+        <v>2124.218505859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3066.914794921875</v>
+        <v>2240.63916015625</v>
       </c>
       <c r="GK4" t="n">
-        <v>3258.02001953125</v>
+        <v>2269.638427734375</v>
       </c>
       <c r="GL4" t="n">
-        <v>3093.358642578125</v>
+        <v>2249.899658203125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2964.7802734375</v>
+        <v>2256.625732421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2962.981201171875</v>
+        <v>2288.220947265625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2975.051513671875</v>
+        <v>2302.660888671875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2925.424072265625</v>
+        <v>2062.863037109375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2885.001953125</v>
+        <v>2042.29296875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2875.9736328125</v>
+        <v>2029.717041015625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2786.7314453125</v>
+        <v>2088.319091796875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2715.7587890625</v>
+        <v>2099.0361328125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2533.14453125</v>
+        <v>2045.138793945312</v>
       </c>
       <c r="GV4" t="n">
-        <v>2631.2939453125</v>
+        <v>2004.235595703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2501.7265625</v>
+        <v>2008.333374023438</v>
       </c>
       <c r="GX4" t="n">
-        <v>2074.68359375</v>
+        <v>2029.164916992188</v>
       </c>
       <c r="GY4" t="n">
-        <v>1940.546020507812</v>
+        <v>2011.874267578125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1899.18994140625</v>
+        <v>2028.639892578125</v>
       </c>
       <c r="HA4" t="n">
-        <v>1853.88623046875</v>
+        <v>2031.438232421875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1753.525146484375</v>
+        <v>2028.998046875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1684.885375976562</v>
+        <v>1974.688232421875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1611.883911132812</v>
+        <v>2003.746215820312</v>
       </c>
       <c r="HE4" t="n">
-        <v>1598.564697265625</v>
+        <v>2024.137451171875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1689.967041015625</v>
+        <v>2024.117431640625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1633.361083984375</v>
+        <v>2007.186401367188</v>
       </c>
       <c r="HH4" t="n">
-        <v>1551.219116210938</v>
+        <v>1986.094970703125</v>
       </c>
       <c r="HI4" t="n">
-        <v>1490.89013671875</v>
+        <v>1985.603759765625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1427.837280273438</v>
+        <v>2009.66796875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1365.38037109375</v>
+        <v>1965.417114257812</v>
       </c>
       <c r="HL4" t="n">
-        <v>1292.201171875</v>
+        <v>1949.618896484375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1213.798461914062</v>
+        <v>1942.72119140625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1110.146728515625</v>
+        <v>1912.56640625</v>
       </c>
       <c r="HO4" t="n">
-        <v>1062.588989257812</v>
+        <v>2146.60009765625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1014.773742675781</v>
+        <v>2122.577880859375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>958.289306640625</v>
+        <v>2131.592529296875</v>
       </c>
       <c r="HR4" t="n">
-        <v>890.480224609375</v>
+        <v>2144.044677734375</v>
       </c>
       <c r="HS4" t="n">
-        <v>830.7092895507812</v>
+        <v>2141.63623046875</v>
       </c>
       <c r="HT4" t="n">
-        <v>757.64208984375</v>
+        <v>2138.400146484375</v>
       </c>
       <c r="HU4" t="n">
-        <v>740.5650634765625</v>
+        <v>2135.09033203125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2155.05517578125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2160.431640625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2166.054443359375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2172.086669921875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2186.125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2200.16259765625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2177.6865234375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2199.224609375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2202.1240234375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2173.42919921875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2181.4736328125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2180.53564453125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2174.03857421875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2202.63720703125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2177.486572265625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2098.384033203125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2110.525146484375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2155.895751953125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2151.938232421875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1943.828247070312</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1921.815551757812</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1902.43701171875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1893.99658203125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1889.500244140625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1913.03466796875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1905.05224609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1885.32177734375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1882.792236328125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1881.979370117188</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1880.576416015625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1880.166748046875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1890.548217773438</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1887.81494140625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1893.737548828125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1854.150146484375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1877.8544921875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1903.337646484375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1909.68798828125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1905.130249023438</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1905.477294921875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1906.846923828125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1933.262451171875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1917.361083984375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2138.606201171875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2137.47314453125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2144.507568359375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2181.67041015625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2197.648193359375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2141.99267578125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2146.125244140625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2138.5791015625</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2134.353759765625</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2132.853515625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2131.81884765625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2128.791748046875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2130.5283203125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2132.3857421875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2139.932861328125</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2138.196044921875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2113.66748046875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2137.267333984375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2121.0927734375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2034.21484375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2096.6494140625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2163.92626953125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2178.0869140625</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2193.357421875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2095.427734375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2041.921875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2093.55078125</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2185.4892578125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2158.521484375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2087.1162109375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2117.6357421875</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2163.4736328125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2019.0849609375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2168.10205078125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2103.604248046875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2127.88427734375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2157.376708984375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2032.19091796875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2147.154296875</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2096.37646484375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1959.299560546875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1954.265747070312</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1918.678955078125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>1794.63134765625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1752.447631835938</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2034.2939453125</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1982.150024414062</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1939.285400390625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1845.683837890625</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1768.060546875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1676.175170898438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1604.557373046875</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1552.092041015625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1256.6396484375</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1174.369873046875</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1074.5791015625</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1074.620971679688</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1023.458923339844</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>954.4005737304688</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>818.0326538085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>881.9258422851562</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>808.859619140625</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>524.751708984375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>730.1137084960938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>689.6776123046875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>660.0000610351562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>645.7340087890625</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>642.2078857421875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>642.7301025390625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>709.4105224609375</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>774.186279296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>802.0573120117188</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>832.2860107421875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>844.423095703125</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>866.107177734375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>900.0667114257812</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>925.5476684570312</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>928.1265869140625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>931.9443969726562</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>977.120849609375</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>989.7068481445312</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>986.3406982421875</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>986.5491943359375</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>959.5466918945312</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>816.9459838867188</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>675.0872802734375</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>640.6316528320312</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>679.0227661132812</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>710.8433837890625</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>658.0604858398438</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>651.2999877929688</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>649.2730712890625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>636.8427124023438</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>631.5697631835938</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>600.818115234375</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>591.5369873046875</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>574.5831909179688</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>562.9328002929688</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>536.2555541992188</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>546.0623168945312</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>547.4937133789062</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>556.5123901367188</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>628.6170043945312</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>602.8994750976562</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>600.3536987304688</v>
       </c>
     </row>
   </sheetData>

--- a/left_ankle_Data_Variable.xlsx
+++ b/left_ankle_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>394.1000671386719</v>
+        <v>337.719482421875</v>
       </c>
       <c r="B2" t="n">
-        <v>398.3880004882812</v>
+        <v>339.5260009765625</v>
       </c>
       <c r="C2" t="n">
-        <v>401.2085266113281</v>
+        <v>340.5478515625</v>
       </c>
       <c r="D2" t="n">
-        <v>405.5587768554688</v>
+        <v>342.5155029296875</v>
       </c>
       <c r="E2" t="n">
-        <v>411.7179565429688</v>
+        <v>344.2613525390625</v>
       </c>
       <c r="F2" t="n">
-        <v>417.7596435546875</v>
+        <v>345.5680541992188</v>
       </c>
       <c r="G2" t="n">
-        <v>424.52490234375</v>
+        <v>346.6375427246094</v>
       </c>
       <c r="H2" t="n">
-        <v>432.0303955078125</v>
+        <v>348.4164733886719</v>
       </c>
       <c r="I2" t="n">
-        <v>439.4346618652344</v>
+        <v>349.5678405761719</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1869812011719</v>
+        <v>351.4587707519531</v>
       </c>
       <c r="K2" t="n">
-        <v>448.5088500976562</v>
+        <v>352.7841186523438</v>
       </c>
       <c r="L2" t="n">
-        <v>451.1959228515625</v>
+        <v>353.9075012207031</v>
       </c>
       <c r="M2" t="n">
-        <v>476.6585693359375</v>
+        <v>356.9259033203125</v>
       </c>
       <c r="N2" t="n">
-        <v>476.5304870605469</v>
+        <v>359.7676086425781</v>
       </c>
       <c r="O2" t="n">
-        <v>483.4012451171875</v>
+        <v>387.9659729003906</v>
       </c>
       <c r="P2" t="n">
-        <v>479.1160583496094</v>
+        <v>387.3569946289062</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.4421997070312</v>
+        <v>387.2459106445312</v>
       </c>
       <c r="R2" t="n">
-        <v>470.08251953125</v>
+        <v>386.4020385742188</v>
       </c>
       <c r="S2" t="n">
-        <v>469.4954223632812</v>
+        <v>385.3319702148438</v>
       </c>
       <c r="T2" t="n">
-        <v>467.4664001464844</v>
+        <v>384.4631652832031</v>
       </c>
       <c r="U2" t="n">
-        <v>464.7261962890625</v>
+        <v>383.9971313476562</v>
       </c>
       <c r="V2" t="n">
-        <v>462.5188598632812</v>
+        <v>383.0217895507812</v>
       </c>
       <c r="W2" t="n">
-        <v>453.6956176757812</v>
+        <v>381.6224365234375</v>
       </c>
       <c r="X2" t="n">
-        <v>458.559326171875</v>
+        <v>380.625244140625</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.6328125</v>
+        <v>380.5478515625</v>
       </c>
       <c r="Z2" t="n">
-        <v>442.9159240722656</v>
+        <v>379.182373046875</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.660400390625</v>
+        <v>378.3471374511719</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.6563110351562</v>
+        <v>377.4618225097656</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.6885681152344</v>
+        <v>375.8685607910156</v>
       </c>
       <c r="AD2" t="n">
-        <v>422.6392822265625</v>
+        <v>372.5906982421875</v>
       </c>
       <c r="AE2" t="n">
-        <v>420.7934265136719</v>
+        <v>368.1494140625</v>
       </c>
       <c r="AF2" t="n">
-        <v>419.457763671875</v>
+        <v>365.8264770507812</v>
       </c>
       <c r="AG2" t="n">
-        <v>418.8420104980469</v>
+        <v>362.7540283203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>418.5175170898438</v>
+        <v>361.7360229492188</v>
       </c>
       <c r="AI2" t="n">
-        <v>427.5323791503906</v>
+        <v>361.6321411132812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>426.5556335449219</v>
+        <v>361.7312316894531</v>
       </c>
       <c r="AK2" t="n">
-        <v>425.8591003417969</v>
+        <v>362.530029296875</v>
       </c>
       <c r="AL2" t="n">
-        <v>423.5870666503906</v>
+        <v>363.4729614257812</v>
       </c>
       <c r="AM2" t="n">
-        <v>418.1185913085938</v>
+        <v>365.4073486328125</v>
       </c>
       <c r="AN2" t="n">
-        <v>415.2813110351562</v>
+        <v>367.7716369628906</v>
       </c>
       <c r="AO2" t="n">
-        <v>416.6787719726562</v>
+        <v>371.0867919921875</v>
       </c>
       <c r="AP2" t="n">
-        <v>416.9754638671875</v>
+        <v>371.0745544433594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>417.0464782714844</v>
+        <v>370.1168518066406</v>
       </c>
       <c r="AR2" t="n">
-        <v>417.2368774414062</v>
+        <v>369.721923828125</v>
       </c>
       <c r="AS2" t="n">
-        <v>417.3096313476562</v>
+        <v>369.0133972167969</v>
       </c>
       <c r="AT2" t="n">
-        <v>417.0527954101562</v>
+        <v>368.3529357910156</v>
       </c>
       <c r="AU2" t="n">
-        <v>416.8318176269531</v>
+        <v>368.0935974121094</v>
       </c>
       <c r="AV2" t="n">
-        <v>416.4979858398438</v>
+        <v>367.8514404296875</v>
       </c>
       <c r="AW2" t="n">
-        <v>416.3362121582031</v>
+        <v>367.69189453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>416.1659545898438</v>
+        <v>367.3437194824219</v>
       </c>
       <c r="AY2" t="n">
-        <v>415.4138488769531</v>
+        <v>367.2973327636719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>413.0551147460938</v>
+        <v>367.3031005859375</v>
       </c>
       <c r="BA2" t="n">
-        <v>408.692138671875</v>
+        <v>367.6715087890625</v>
       </c>
       <c r="BB2" t="n">
-        <v>402.9880981445312</v>
+        <v>367.8327026367188</v>
       </c>
       <c r="BC2" t="n">
-        <v>399.7867431640625</v>
+        <v>368.1059265136719</v>
       </c>
       <c r="BD2" t="n">
-        <v>396.2945861816406</v>
+        <v>368.0102844238281</v>
       </c>
       <c r="BE2" t="n">
-        <v>395.4071655273438</v>
+        <v>367.9296264648438</v>
       </c>
       <c r="BF2" t="n">
-        <v>393.6323852539062</v>
+        <v>368.0531311035156</v>
       </c>
       <c r="BG2" t="n">
-        <v>392.0261840820312</v>
+        <v>368.0303344726562</v>
       </c>
       <c r="BH2" t="n">
-        <v>390.48486328125</v>
+        <v>368.037109375</v>
       </c>
       <c r="BI2" t="n">
-        <v>390.74365234375</v>
+        <v>368.1045532226562</v>
       </c>
       <c r="BJ2" t="n">
-        <v>390.865234375</v>
+        <v>368.5196533203125</v>
       </c>
       <c r="BK2" t="n">
-        <v>389.5150146484375</v>
+        <v>368.8102416992188</v>
       </c>
       <c r="BL2" t="n">
-        <v>387.1142883300781</v>
+        <v>368.5820922851562</v>
       </c>
       <c r="BM2" t="n">
-        <v>380.8970947265625</v>
+        <v>368.1301879882812</v>
       </c>
       <c r="BN2" t="n">
-        <v>372.8247680664062</v>
+        <v>367.9520263671875</v>
       </c>
       <c r="BO2" t="n">
-        <v>362.416748046875</v>
+        <v>367.6471557617188</v>
       </c>
       <c r="BP2" t="n">
-        <v>362.2036437988281</v>
+        <v>367.2879638671875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>360.8252563476562</v>
+        <v>367.0097351074219</v>
       </c>
       <c r="BR2" t="n">
-        <v>359.2620544433594</v>
+        <v>366.8265991210938</v>
       </c>
       <c r="BS2" t="n">
-        <v>360.1804809570312</v>
+        <v>366.819091796875</v>
       </c>
       <c r="BT2" t="n">
-        <v>361.1133117675781</v>
+        <v>367.0140991210938</v>
       </c>
       <c r="BU2" t="n">
-        <v>362.2002563476562</v>
+        <v>367.2555541992188</v>
       </c>
       <c r="BV2" t="n">
-        <v>362.466552734375</v>
+        <v>367.5593872070312</v>
       </c>
       <c r="BW2" t="n">
-        <v>362.8229370117188</v>
+        <v>367.9669189453125</v>
       </c>
       <c r="BX2" t="n">
-        <v>362.7319946289062</v>
+        <v>368.6240234375</v>
       </c>
       <c r="BY2" t="n">
-        <v>362.6126098632812</v>
+        <v>369.4464416503906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>362.3428649902344</v>
+        <v>369.9576110839844</v>
       </c>
       <c r="CA2" t="n">
-        <v>362.050048828125</v>
+        <v>369.8970947265625</v>
       </c>
       <c r="CB2" t="n">
-        <v>362.2162170410156</v>
+        <v>370.0569458007812</v>
       </c>
       <c r="CC2" t="n">
-        <v>363.1756286621094</v>
+        <v>370.1151123046875</v>
       </c>
       <c r="CD2" t="n">
-        <v>367.3230285644531</v>
+        <v>370.576171875</v>
       </c>
       <c r="CE2" t="n">
-        <v>384.1946411132812</v>
+        <v>370.5704345703125</v>
       </c>
       <c r="CF2" t="n">
-        <v>387.1228637695312</v>
+        <v>370.6224975585938</v>
       </c>
       <c r="CG2" t="n">
-        <v>389.1802978515625</v>
+        <v>370.7743835449219</v>
       </c>
       <c r="CH2" t="n">
-        <v>394.3410034179688</v>
+        <v>370.93994140625</v>
       </c>
       <c r="CI2" t="n">
-        <v>401.9063110351562</v>
+        <v>370.9628601074219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>402.580078125</v>
+        <v>370.6836242675781</v>
       </c>
       <c r="CK2" t="n">
-        <v>404.5299682617188</v>
+        <v>370.5444946289062</v>
       </c>
       <c r="CL2" t="n">
-        <v>404.6908264160156</v>
+        <v>370.5995483398438</v>
       </c>
       <c r="CM2" t="n">
-        <v>404.4843139648438</v>
+        <v>370.8626708984375</v>
       </c>
       <c r="CN2" t="n">
-        <v>404.468017578125</v>
+        <v>370.7208557128906</v>
       </c>
       <c r="CO2" t="n">
-        <v>405.1380615234375</v>
+        <v>370.5445556640625</v>
       </c>
       <c r="CP2" t="n">
-        <v>406.7242126464844</v>
+        <v>370.5656127929688</v>
       </c>
       <c r="CQ2" t="n">
-        <v>409.2363891601562</v>
+        <v>370.7374877929688</v>
       </c>
       <c r="CR2" t="n">
-        <v>414.353271484375</v>
+        <v>370.6923828125</v>
       </c>
       <c r="CS2" t="n">
-        <v>416.23095703125</v>
+        <v>370.697265625</v>
       </c>
       <c r="CT2" t="n">
-        <v>414.4440307617188</v>
+        <v>370.7022094726562</v>
       </c>
       <c r="CU2" t="n">
-        <v>413.3504028320312</v>
+        <v>370.7039794921875</v>
       </c>
       <c r="CV2" t="n">
-        <v>411.56591796875</v>
+        <v>370.7015686035156</v>
       </c>
       <c r="CW2" t="n">
-        <v>408.5516967773438</v>
+        <v>370.696533203125</v>
       </c>
       <c r="CX2" t="n">
-        <v>409.0475158691406</v>
+        <v>370.619873046875</v>
       </c>
       <c r="CY2" t="n">
-        <v>406.965576171875</v>
+        <v>370.4290466308594</v>
       </c>
       <c r="CZ2" t="n">
-        <v>390.5807189941406</v>
+        <v>370.3182373046875</v>
       </c>
       <c r="DA2" t="n">
-        <v>384.7748107910156</v>
+        <v>370.2095336914062</v>
       </c>
       <c r="DB2" t="n">
-        <v>383.7101440429688</v>
+        <v>370.1230163574219</v>
       </c>
       <c r="DC2" t="n">
-        <v>382.0170288085938</v>
+        <v>369.8783569335938</v>
       </c>
       <c r="DD2" t="n">
-        <v>381.9014892578125</v>
+        <v>369.7124938964844</v>
       </c>
       <c r="DE2" t="n">
-        <v>378.7525024414062</v>
+        <v>370.0884399414062</v>
       </c>
       <c r="DF2" t="n">
-        <v>376.0330810546875</v>
+        <v>370.0787658691406</v>
       </c>
       <c r="DG2" t="n">
-        <v>376.37841796875</v>
+        <v>370.1193237304688</v>
       </c>
       <c r="DH2" t="n">
-        <v>376.4131469726562</v>
+        <v>370.1461791992188</v>
       </c>
       <c r="DI2" t="n">
-        <v>376.10693359375</v>
+        <v>370.241455078125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>375.2005004882812</v>
+        <v>370.2746276855469</v>
       </c>
       <c r="DK2" t="n">
-        <v>373.46337890625</v>
+        <v>369.4953002929688</v>
       </c>
       <c r="DL2" t="n">
-        <v>372.1856689453125</v>
+        <v>368.9080200195312</v>
       </c>
       <c r="DM2" t="n">
-        <v>371.6723937988281</v>
+        <v>368.2784423828125</v>
       </c>
       <c r="DN2" t="n">
-        <v>370.7207946777344</v>
+        <v>368.300048828125</v>
       </c>
       <c r="DO2" t="n">
-        <v>368.7320556640625</v>
+        <v>368.1422119140625</v>
       </c>
       <c r="DP2" t="n">
-        <v>365.19482421875</v>
+        <v>368.0469055175781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>361.6093139648438</v>
+        <v>367.8936157226562</v>
       </c>
       <c r="DR2" t="n">
-        <v>361.4162902832031</v>
+        <v>368.0925903320312</v>
       </c>
       <c r="DS2" t="n">
-        <v>361.2149658203125</v>
+        <v>368.138916015625</v>
       </c>
       <c r="DT2" t="n">
-        <v>361.0443115234375</v>
+        <v>367.900390625</v>
       </c>
       <c r="DU2" t="n">
-        <v>360.9711303710938</v>
+        <v>367.6074829101562</v>
       </c>
       <c r="DV2" t="n">
-        <v>360.9287109375</v>
+        <v>366.7982482910156</v>
       </c>
       <c r="DW2" t="n">
-        <v>360.8422241210938</v>
+        <v>366.1957092285156</v>
       </c>
       <c r="DX2" t="n">
-        <v>360.9949340820312</v>
+        <v>366.31689453125</v>
       </c>
       <c r="DY2" t="n">
-        <v>362.2622375488281</v>
+        <v>366.9662780761719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.7449340820312</v>
+        <v>368.0510864257812</v>
       </c>
       <c r="EA2" t="n">
-        <v>383.8696594238281</v>
+        <v>368.6168823242188</v>
       </c>
       <c r="EB2" t="n">
-        <v>392.335205078125</v>
+        <v>371.3912963867188</v>
       </c>
       <c r="EC2" t="n">
-        <v>398.822021484375</v>
+        <v>376.6427612304688</v>
       </c>
       <c r="ED2" t="n">
-        <v>403.9282836914062</v>
+        <v>397.2962036132812</v>
       </c>
       <c r="EE2" t="n">
-        <v>417.9019775390625</v>
+        <v>402.1946716308594</v>
       </c>
       <c r="EF2" t="n">
-        <v>441.4373168945312</v>
+        <v>400.6986083984375</v>
       </c>
       <c r="EG2" t="n">
-        <v>459.6255798339844</v>
+        <v>399.9262084960938</v>
       </c>
       <c r="EH2" t="n">
-        <v>466.314453125</v>
+        <v>394.7839050292969</v>
       </c>
       <c r="EI2" t="n">
-        <v>481.3580322265625</v>
+        <v>391.8153381347656</v>
       </c>
       <c r="EJ2" t="n">
-        <v>484.942138671875</v>
+        <v>385.3769226074219</v>
       </c>
       <c r="EK2" t="n">
-        <v>485.6658935546875</v>
+        <v>378.3216857910156</v>
       </c>
       <c r="EL2" t="n">
-        <v>480.5404968261719</v>
+        <v>373.6927795410156</v>
       </c>
       <c r="EM2" t="n">
-        <v>480.5790405273438</v>
+        <v>370.7850646972656</v>
       </c>
       <c r="EN2" t="n">
-        <v>491.80224609375</v>
+        <v>367.978515625</v>
       </c>
       <c r="EO2" t="n">
-        <v>498.0474243164062</v>
+        <v>368.666015625</v>
       </c>
       <c r="EP2" t="n">
-        <v>497.6103515625</v>
+        <v>369.05908203125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>502.78662109375</v>
+        <v>368.7537231445312</v>
       </c>
       <c r="ER2" t="n">
-        <v>506.2648315429688</v>
+        <v>369.0207214355469</v>
       </c>
       <c r="ES2" t="n">
-        <v>505.9500732421875</v>
+        <v>369.0069274902344</v>
       </c>
       <c r="ET2" t="n">
-        <v>504.4828796386719</v>
+        <v>368.8335876464844</v>
       </c>
       <c r="EU2" t="n">
-        <v>504.32080078125</v>
+        <v>366.4915161132812</v>
       </c>
       <c r="EV2" t="n">
-        <v>505.5477294921875</v>
+        <v>366.034423828125</v>
       </c>
       <c r="EW2" t="n">
-        <v>502.225341796875</v>
+        <v>366.320556640625</v>
       </c>
       <c r="EX2" t="n">
-        <v>498.1341552734375</v>
+        <v>365.7249755859375</v>
       </c>
       <c r="EY2" t="n">
-        <v>494.1163635253906</v>
+        <v>365.1341247558594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>490.8057861328125</v>
+        <v>362.1575927734375</v>
       </c>
       <c r="FA2" t="n">
-        <v>488.9778137207031</v>
+        <v>359.6976318359375</v>
       </c>
       <c r="FB2" t="n">
-        <v>494.4285278320312</v>
+        <v>358.3721313476562</v>
       </c>
       <c r="FC2" t="n">
-        <v>501.0142822265625</v>
+        <v>359.3631286621094</v>
       </c>
       <c r="FD2" t="n">
-        <v>496.9048461914062</v>
+        <v>367.8232421875</v>
       </c>
       <c r="FE2" t="n">
-        <v>492.92822265625</v>
+        <v>370.4937744140625</v>
       </c>
       <c r="FF2" t="n">
-        <v>491.4987182617188</v>
+        <v>365.2451171875</v>
       </c>
       <c r="FG2" t="n">
-        <v>484.951171875</v>
+        <v>365.2990112304688</v>
       </c>
       <c r="FH2" t="n">
-        <v>482.8404235839844</v>
+        <v>365.8393859863281</v>
       </c>
       <c r="FI2" t="n">
-        <v>473.720947265625</v>
+        <v>367.3104858398438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>471.9579467773438</v>
+        <v>370.7731323242188</v>
       </c>
       <c r="FK2" t="n">
-        <v>476.2175903320312</v>
+        <v>378.8215637207031</v>
       </c>
       <c r="FL2" t="n">
-        <v>473.7606201171875</v>
+        <v>381.7529907226562</v>
       </c>
       <c r="FM2" t="n">
-        <v>463.560546875</v>
+        <v>377.4964904785156</v>
       </c>
       <c r="FN2" t="n">
-        <v>457.7567749023438</v>
+        <v>376.3764038085938</v>
       </c>
       <c r="FO2" t="n">
-        <v>453.8747863769531</v>
+        <v>374.7753295898438</v>
       </c>
       <c r="FP2" t="n">
-        <v>450.8892211914062</v>
+        <v>374.9342041015625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>450.611572265625</v>
+        <v>375.1322021484375</v>
       </c>
       <c r="FR2" t="n">
-        <v>450.5361938476562</v>
+        <v>376.2484130859375</v>
       </c>
       <c r="FS2" t="n">
-        <v>450.89111328125</v>
+        <v>376.8742370605469</v>
       </c>
       <c r="FT2" t="n">
-        <v>448.14404296875</v>
+        <v>376.7448120117188</v>
       </c>
       <c r="FU2" t="n">
-        <v>444.9825439453125</v>
+        <v>372.7762451171875</v>
       </c>
       <c r="FV2" t="n">
-        <v>441.1585998535156</v>
+        <v>367.0592956542969</v>
       </c>
       <c r="FW2" t="n">
-        <v>440.2716674804688</v>
+        <v>362.4897766113281</v>
       </c>
       <c r="FX2" t="n">
-        <v>439.7958068847656</v>
+        <v>362.6179504394531</v>
       </c>
       <c r="FY2" t="n">
-        <v>439.7162475585938</v>
+        <v>361.9300537109375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>440.82666015625</v>
+        <v>361.4079284667969</v>
       </c>
       <c r="GA2" t="n">
-        <v>439.7598876953125</v>
+        <v>361.5523681640625</v>
       </c>
       <c r="GB2" t="n">
-        <v>430.3002319335938</v>
+        <v>363.1486206054688</v>
       </c>
       <c r="GC2" t="n">
-        <v>425.7265625</v>
+        <v>365.168701171875</v>
       </c>
       <c r="GD2" t="n">
-        <v>419.6650390625</v>
+        <v>365.2282104492188</v>
       </c>
       <c r="GE2" t="n">
-        <v>416.1483764648438</v>
+        <v>362.3782653808594</v>
       </c>
       <c r="GF2" t="n">
-        <v>412.90771484375</v>
+        <v>363.6194152832031</v>
       </c>
       <c r="GG2" t="n">
-        <v>412.9306640625</v>
+        <v>361.4825439453125</v>
       </c>
       <c r="GH2" t="n">
-        <v>412.6672668457031</v>
+        <v>338.6157531738281</v>
       </c>
       <c r="GI2" t="n">
-        <v>411.3641967773438</v>
+        <v>328.44287109375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>398.3937072753906</v>
+        <v>330.332275390625</v>
       </c>
       <c r="GK2" t="n">
-        <v>397.5634765625</v>
+        <v>352.1492309570312</v>
       </c>
       <c r="GL2" t="n">
-        <v>396.1812133789062</v>
+        <v>351.2755737304688</v>
       </c>
       <c r="GM2" t="n">
-        <v>401.1600341796875</v>
+        <v>349.1201171875</v>
       </c>
       <c r="GN2" t="n">
-        <v>393.0334777832031</v>
+        <v>348.3594055175781</v>
       </c>
       <c r="GO2" t="n">
-        <v>378.8692932128906</v>
+        <v>346.5228271484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>400.2856750488281</v>
+        <v>344.6471557617188</v>
       </c>
       <c r="GQ2" t="n">
-        <v>381.8453979492188</v>
+        <v>346.6128845214844</v>
       </c>
       <c r="GR2" t="n">
-        <v>380.7874755859375</v>
+        <v>345.4327392578125</v>
       </c>
       <c r="GS2" t="n">
-        <v>383.943115234375</v>
+        <v>342.7249450683594</v>
       </c>
       <c r="GT2" t="n">
-        <v>380.9178466796875</v>
+        <v>338.1744995117188</v>
       </c>
       <c r="GU2" t="n">
-        <v>370.7533264160156</v>
+        <v>327.1191711425781</v>
       </c>
       <c r="GV2" t="n">
-        <v>363.9130249023438</v>
+        <v>319.5249938964844</v>
       </c>
       <c r="GW2" t="n">
-        <v>361.48583984375</v>
+        <v>310.8721313476562</v>
       </c>
       <c r="GX2" t="n">
-        <v>356.5858764648438</v>
+        <v>298.9801025390625</v>
       </c>
       <c r="GY2" t="n">
-        <v>356.419921875</v>
+        <v>287.9964904785156</v>
       </c>
       <c r="GZ2" t="n">
-        <v>356.3130493164062</v>
+        <v>274.5212097167969</v>
       </c>
       <c r="HA2" t="n">
-        <v>356.5941772460938</v>
+        <v>235.0695190429688</v>
       </c>
       <c r="HB2" t="n">
-        <v>356.5667724609375</v>
+        <v>213.1099700927734</v>
       </c>
       <c r="HC2" t="n">
-        <v>355.8569030761719</v>
+        <v>202.2501220703125</v>
       </c>
       <c r="HD2" t="n">
-        <v>355.5443115234375</v>
+        <v>191.1661071777344</v>
       </c>
       <c r="HE2" t="n">
-        <v>357.0390014648438</v>
+        <v>182.4662933349609</v>
       </c>
       <c r="HF2" t="n">
-        <v>357.9027099609375</v>
+        <v>180.8108673095703</v>
       </c>
       <c r="HG2" t="n">
-        <v>356.8586730957031</v>
+        <v>182.1453094482422</v>
       </c>
       <c r="HH2" t="n">
-        <v>352.8662109375</v>
+        <v>188.3867645263672</v>
       </c>
       <c r="HI2" t="n">
-        <v>349.9745178222656</v>
+        <v>202.23046875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>352.4576416015625</v>
+        <v>205.0429077148438</v>
       </c>
       <c r="HK2" t="n">
-        <v>366.717529296875</v>
+        <v>212.1137237548828</v>
       </c>
       <c r="HL2" t="n">
-        <v>390.357666015625</v>
+        <v>219.7646789550781</v>
       </c>
       <c r="HM2" t="n">
-        <v>397.9127502441406</v>
+        <v>222.3563995361328</v>
       </c>
       <c r="HN2" t="n">
-        <v>405.13037109375</v>
+        <v>230.1041870117188</v>
       </c>
       <c r="HO2" t="n">
-        <v>420.3195495605469</v>
+        <v>248.0334167480469</v>
       </c>
       <c r="HP2" t="n">
-        <v>422.7898559570312</v>
+        <v>269.892578125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>419.4952392578125</v>
+        <v>279.7071838378906</v>
       </c>
       <c r="HR2" t="n">
-        <v>428.7698669433594</v>
+        <v>271.2236633300781</v>
       </c>
       <c r="HS2" t="n">
-        <v>430.7750854492188</v>
+        <v>267.4280700683594</v>
       </c>
       <c r="HT2" t="n">
-        <v>427.2503051757812</v>
+        <v>272.1866455078125</v>
       </c>
       <c r="HU2" t="n">
-        <v>419.3495483398438</v>
+        <v>278.7703552246094</v>
       </c>
       <c r="HV2" t="n">
-        <v>418.8814697265625</v>
+        <v>275.1021728515625</v>
       </c>
       <c r="HW2" t="n">
-        <v>418.0653076171875</v>
+        <v>319.3245849609375</v>
       </c>
       <c r="HX2" t="n">
-        <v>418.8040161132812</v>
+        <v>338.9822082519531</v>
       </c>
       <c r="HY2" t="n">
-        <v>418.1597900390625</v>
+        <v>359.1691284179688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>417.322021484375</v>
+        <v>361.0033874511719</v>
       </c>
       <c r="IA2" t="n">
-        <v>413.3284912109375</v>
+        <v>365.7109985351562</v>
       </c>
       <c r="IB2" t="n">
-        <v>416.6842346191406</v>
+        <v>376.4534301757812</v>
       </c>
       <c r="IC2" t="n">
-        <v>417.9371643066406</v>
+        <v>388.9330749511719</v>
       </c>
       <c r="ID2" t="n">
-        <v>424.6001586914062</v>
+        <v>382.1817016601562</v>
       </c>
       <c r="IE2" t="n">
-        <v>425.6994018554688</v>
+        <v>395.4159851074219</v>
       </c>
       <c r="IF2" t="n">
-        <v>427.5305786132812</v>
+        <v>397.9660339355469</v>
       </c>
       <c r="IG2" t="n">
-        <v>430.7782592773438</v>
+        <v>386.295654296875</v>
       </c>
       <c r="IH2" t="n">
-        <v>427.0721130371094</v>
+        <v>381.5811157226562</v>
       </c>
       <c r="II2" t="n">
-        <v>411.6256713867188</v>
+        <v>379.094970703125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>414.4806518554688</v>
+        <v>374.4107666015625</v>
       </c>
       <c r="IK2" t="n">
-        <v>427.2273559570312</v>
+        <v>375.9396667480469</v>
       </c>
       <c r="IL2" t="n">
-        <v>429.9245910644531</v>
+        <v>351.956787109375</v>
       </c>
       <c r="IM2" t="n">
-        <v>408.5361022949219</v>
+        <v>340.8908386230469</v>
       </c>
       <c r="IN2" t="n">
-        <v>395.4650268554688</v>
+        <v>305.1696472167969</v>
       </c>
       <c r="IO2" t="n">
-        <v>394.8391418457031</v>
+        <v>302.494873046875</v>
       </c>
       <c r="IP2" t="n">
-        <v>388.7252502441406</v>
+        <v>301.9588623046875</v>
       </c>
       <c r="IQ2" t="n">
-        <v>392.2891235351562</v>
+        <v>341.5381469726562</v>
       </c>
       <c r="IR2" t="n">
-        <v>370.2755126953125</v>
+        <v>312.826171875</v>
       </c>
       <c r="IS2" t="n">
-        <v>355.9842529296875</v>
+        <v>322.4910888671875</v>
       </c>
       <c r="IT2" t="n">
-        <v>352.0248718261719</v>
+        <v>325.512451171875</v>
       </c>
       <c r="IU2" t="n">
-        <v>352.7486877441406</v>
+        <v>301.9288635253906</v>
       </c>
       <c r="IV2" t="n">
-        <v>356.0601806640625</v>
+        <v>327.5205078125</v>
       </c>
       <c r="IW2" t="n">
-        <v>355.5781860351562</v>
+        <v>326.1857299804688</v>
       </c>
       <c r="IX2" t="n">
-        <v>354.2184753417969</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>354.3189697265625</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>354.2621459960938</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>354.7578430175781</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>359.0599975585938</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>358.7743530273438</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>390.9000244140625</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>386.8038330078125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>388.3521728515625</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>399.9856567382812</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>400.7662353515625</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>405.4101867675781</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>411.6637573242188</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>416.0278930664062</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>419.4415893554688</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>404.7766418457031</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>404.0957641601562</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>402.4313354492188</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>395.0263061523438</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>400.0384216308594</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>405.49169921875</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>406.3436279296875</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>410.8060913085938</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>409.907470703125</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>409.2471923828125</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>409.0098876953125</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>409.6982421875</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>409.8720703125</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>409.4613037109375</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>405.9903259277344</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>405.0783996582031</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>406.0093994140625</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>406.1878051757812</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>409.2196960449219</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>416.1748962402344</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>388.8440551757812</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>404.2870788574219</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>393.8350219726562</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>387.3952026367188</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>401.9651794433594</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>419.6194763183594</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>400.6375732421875</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>385.3998413085938</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>436.5551147460938</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>437.7218322753906</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>428.0102844238281</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>422.8438720703125</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>403.5088500976562</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>449.3011474609375</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>382.6071472167969</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>414.37548828125</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>407.6434631347656</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>414.0066833496094</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>411.9019165039062</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>397.800048828125</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>425.68017578125</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>427.1531372070312</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>434.0514831542969</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>456.7020263671875</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>462.4091796875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>441.5069580078125</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>445.5275268554688</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>447.0312805175781</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>453.4042358398438</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>458.1202697753906</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>467.1482543945312</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>470.9108276367188</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>477.4383239746094</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>519.0559692382812</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>525.3513793945312</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>504.2181701660156</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>418.7893981933594</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>426.5713806152344</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>438.3318481445312</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>418.2978820800781</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>560.7265014648438</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>567.5816040039062</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>562.6256713867188</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>561.446533203125</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>558.1993408203125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>545.058837890625</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>523.0096435546875</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>496.8876647949219</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>471.5113525390625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>438.0411987304688</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>418.2427368164062</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>413.3920593261719</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>407.6357421875</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>412.1669921875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>416.5643005371094</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>419.8328247070312</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>427.9530029296875</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>431.1635131835938</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>450.60888671875</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>451.7095336914062</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>455.2626342773438</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>458.3147888183594</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>455.6181335449219</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>427.4735107421875</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>411.8396606445312</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>434.8992614746094</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>430.7373657226562</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>370.6410217285156</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>367.7087707519531</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>362.2106323242188</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>394.3685913085938</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>408.933837890625</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>406.9538879394531</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>430.7017211914062</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>424.9322509765625</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>418.1271362304688</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>397.8768310546875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>311.8633117675781</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>415.8923950195312</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>427.413818359375</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>404.0252685546875</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>389.5523376464844</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>419.7857055664062</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>386.5408935546875</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>422.6839599609375</v>
+        <v>323.7100830078125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>699.1104736328125</v>
+        <v>733.8140258789062</v>
       </c>
       <c r="B3" t="n">
-        <v>696.0829467773438</v>
+        <v>726.8770141601562</v>
       </c>
       <c r="C3" t="n">
-        <v>696.5382690429688</v>
+        <v>723.7398681640625</v>
       </c>
       <c r="D3" t="n">
-        <v>695.4525146484375</v>
+        <v>717.1150512695312</v>
       </c>
       <c r="E3" t="n">
-        <v>694.96044921875</v>
+        <v>709.030517578125</v>
       </c>
       <c r="F3" t="n">
-        <v>694.2500610351562</v>
+        <v>703.0986938476562</v>
       </c>
       <c r="G3" t="n">
-        <v>692.9185791015625</v>
+        <v>697.6190185546875</v>
       </c>
       <c r="H3" t="n">
-        <v>690.7568359375</v>
+        <v>692.5491333007812</v>
       </c>
       <c r="I3" t="n">
-        <v>685.5846557617188</v>
+        <v>687.1145629882812</v>
       </c>
       <c r="J3" t="n">
-        <v>679.347412109375</v>
+        <v>681.54296875</v>
       </c>
       <c r="K3" t="n">
-        <v>670.225830078125</v>
+        <v>681.016845703125</v>
       </c>
       <c r="L3" t="n">
-        <v>665.1304321289062</v>
+        <v>677.423095703125</v>
       </c>
       <c r="M3" t="n">
-        <v>727.8623657226562</v>
+        <v>671.3776245117188</v>
       </c>
       <c r="N3" t="n">
-        <v>710.9474487304688</v>
+        <v>665.421630859375</v>
       </c>
       <c r="O3" t="n">
-        <v>698.0301513671875</v>
+        <v>668.4548950195312</v>
       </c>
       <c r="P3" t="n">
-        <v>690.7982177734375</v>
+        <v>662.8416137695312</v>
       </c>
       <c r="Q3" t="n">
-        <v>689.4547119140625</v>
+        <v>658.0633544921875</v>
       </c>
       <c r="R3" t="n">
-        <v>687.2091674804688</v>
+        <v>655.6242065429688</v>
       </c>
       <c r="S3" t="n">
-        <v>686.3836669921875</v>
+        <v>653.3361206054688</v>
       </c>
       <c r="T3" t="n">
-        <v>679.586669921875</v>
+        <v>650.777587890625</v>
       </c>
       <c r="U3" t="n">
-        <v>674.7991333007812</v>
+        <v>647.833984375</v>
       </c>
       <c r="V3" t="n">
-        <v>673.8868408203125</v>
+        <v>646.0077514648438</v>
       </c>
       <c r="W3" t="n">
-        <v>672.9174194335938</v>
+        <v>642.006103515625</v>
       </c>
       <c r="X3" t="n">
-        <v>670.9002075195312</v>
+        <v>638.6602783203125</v>
       </c>
       <c r="Y3" t="n">
-        <v>686.2755737304688</v>
+        <v>635.755615234375</v>
       </c>
       <c r="Z3" t="n">
-        <v>698.0457153320312</v>
+        <v>629.6141967773438</v>
       </c>
       <c r="AA3" t="n">
-        <v>698.1666259765625</v>
+        <v>626.392822265625</v>
       </c>
       <c r="AB3" t="n">
-        <v>686.01416015625</v>
+        <v>623.8204345703125</v>
       </c>
       <c r="AC3" t="n">
-        <v>679.9154052734375</v>
+        <v>619.8287353515625</v>
       </c>
       <c r="AD3" t="n">
-        <v>626.0980224609375</v>
+        <v>617.0497436523438</v>
       </c>
       <c r="AE3" t="n">
-        <v>625.1547241210938</v>
+        <v>612.5521240234375</v>
       </c>
       <c r="AF3" t="n">
-        <v>620.6590576171875</v>
+        <v>606.6553955078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>618.3775024414062</v>
+        <v>602.063720703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>604.889892578125</v>
+        <v>599.406982421875</v>
       </c>
       <c r="AI3" t="n">
-        <v>654.7023315429688</v>
+        <v>595.5175170898438</v>
       </c>
       <c r="AJ3" t="n">
-        <v>649.2703857421875</v>
+        <v>593.2282104492188</v>
       </c>
       <c r="AK3" t="n">
-        <v>653.1063232421875</v>
+        <v>590.8954467773438</v>
       </c>
       <c r="AL3" t="n">
-        <v>656.8992309570312</v>
+        <v>588.2589721679688</v>
       </c>
       <c r="AM3" t="n">
-        <v>666.3375244140625</v>
+        <v>587.5281982421875</v>
       </c>
       <c r="AN3" t="n">
-        <v>667.2921142578125</v>
+        <v>588.5662841796875</v>
       </c>
       <c r="AO3" t="n">
-        <v>669.801513671875</v>
+        <v>589.9445190429688</v>
       </c>
       <c r="AP3" t="n">
-        <v>673.127197265625</v>
+        <v>591.5744018554688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>677.0987548828125</v>
+        <v>592.6748046875</v>
       </c>
       <c r="AR3" t="n">
-        <v>678.1371459960938</v>
+        <v>594.3140258789062</v>
       </c>
       <c r="AS3" t="n">
-        <v>678.7627563476562</v>
+        <v>593.7501220703125</v>
       </c>
       <c r="AT3" t="n">
-        <v>679.5233764648438</v>
+        <v>591.7945556640625</v>
       </c>
       <c r="AU3" t="n">
-        <v>680.5928344726562</v>
+        <v>589.6194458007812</v>
       </c>
       <c r="AV3" t="n">
-        <v>678.7769165039062</v>
+        <v>589.1220703125</v>
       </c>
       <c r="AW3" t="n">
-        <v>677.4613647460938</v>
+        <v>589.2527465820312</v>
       </c>
       <c r="AX3" t="n">
-        <v>679.0362548828125</v>
+        <v>588.7318725585938</v>
       </c>
       <c r="AY3" t="n">
-        <v>682.1715698242188</v>
+        <v>588.4871826171875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>685.2470703125</v>
+        <v>587.8273315429688</v>
       </c>
       <c r="BA3" t="n">
-        <v>689.1868896484375</v>
+        <v>587.5263671875</v>
       </c>
       <c r="BB3" t="n">
-        <v>692.5374755859375</v>
+        <v>587.1829223632812</v>
       </c>
       <c r="BC3" t="n">
-        <v>694.4430541992188</v>
+        <v>587.4681396484375</v>
       </c>
       <c r="BD3" t="n">
-        <v>695.0493774414062</v>
+        <v>586.7994995117188</v>
       </c>
       <c r="BE3" t="n">
-        <v>694.818603515625</v>
+        <v>586.28515625</v>
       </c>
       <c r="BF3" t="n">
-        <v>690.6495361328125</v>
+        <v>586.135009765625</v>
       </c>
       <c r="BG3" t="n">
-        <v>685.908203125</v>
+        <v>585.6732788085938</v>
       </c>
       <c r="BH3" t="n">
-        <v>680.90380859375</v>
+        <v>585.129638671875</v>
       </c>
       <c r="BI3" t="n">
-        <v>676.5985717773438</v>
+        <v>584.7157592773438</v>
       </c>
       <c r="BJ3" t="n">
-        <v>675.0724487304688</v>
+        <v>584.3876953125</v>
       </c>
       <c r="BK3" t="n">
-        <v>674.0159301757812</v>
+        <v>584.2456665039062</v>
       </c>
       <c r="BL3" t="n">
-        <v>675.7531127929688</v>
+        <v>584.0289916992188</v>
       </c>
       <c r="BM3" t="n">
-        <v>678.1146850585938</v>
+        <v>583.55322265625</v>
       </c>
       <c r="BN3" t="n">
-        <v>680.120361328125</v>
+        <v>583.3787841796875</v>
       </c>
       <c r="BO3" t="n">
-        <v>689.57763671875</v>
+        <v>584.2718505859375</v>
       </c>
       <c r="BP3" t="n">
-        <v>694.47607421875</v>
+        <v>584.4185180664062</v>
       </c>
       <c r="BQ3" t="n">
-        <v>698.2304077148438</v>
+        <v>584.0254516601562</v>
       </c>
       <c r="BR3" t="n">
-        <v>700.3662109375</v>
+        <v>584.071044921875</v>
       </c>
       <c r="BS3" t="n">
-        <v>701.3674926757812</v>
+        <v>583.6405029296875</v>
       </c>
       <c r="BT3" t="n">
-        <v>701.31201171875</v>
+        <v>583.4215087890625</v>
       </c>
       <c r="BU3" t="n">
-        <v>703.5521240234375</v>
+        <v>583.351318359375</v>
       </c>
       <c r="BV3" t="n">
-        <v>706.14501953125</v>
+        <v>583.6426391601562</v>
       </c>
       <c r="BW3" t="n">
-        <v>709.1461791992188</v>
+        <v>583.8552856445312</v>
       </c>
       <c r="BX3" t="n">
-        <v>710.1012573242188</v>
+        <v>583.9608154296875</v>
       </c>
       <c r="BY3" t="n">
-        <v>712.1060180664062</v>
+        <v>584.0919189453125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>712.3372802734375</v>
+        <v>584.0997314453125</v>
       </c>
       <c r="CA3" t="n">
-        <v>708.12353515625</v>
+        <v>584.0654907226562</v>
       </c>
       <c r="CB3" t="n">
-        <v>705.4707641601562</v>
+        <v>584.0436401367188</v>
       </c>
       <c r="CC3" t="n">
-        <v>703.0470581054688</v>
+        <v>584.0057983398438</v>
       </c>
       <c r="CD3" t="n">
-        <v>702.2440185546875</v>
+        <v>583.9990844726562</v>
       </c>
       <c r="CE3" t="n">
-        <v>703.202880859375</v>
+        <v>583.97119140625</v>
       </c>
       <c r="CF3" t="n">
-        <v>703.9279174804688</v>
+        <v>583.9076538085938</v>
       </c>
       <c r="CG3" t="n">
-        <v>705.1548461914062</v>
+        <v>583.9845581054688</v>
       </c>
       <c r="CH3" t="n">
-        <v>708.2317504882812</v>
+        <v>584.0689697265625</v>
       </c>
       <c r="CI3" t="n">
-        <v>710.3702392578125</v>
+        <v>584.022705078125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>717.0455322265625</v>
+        <v>583.87451171875</v>
       </c>
       <c r="CK3" t="n">
-        <v>720.5762939453125</v>
+        <v>583.7527465820312</v>
       </c>
       <c r="CL3" t="n">
-        <v>724.1592407226562</v>
+        <v>583.7714233398438</v>
       </c>
       <c r="CM3" t="n">
-        <v>724.4881591796875</v>
+        <v>583.765625</v>
       </c>
       <c r="CN3" t="n">
-        <v>726.468505859375</v>
+        <v>583.559814453125</v>
       </c>
       <c r="CO3" t="n">
-        <v>726.4772338867188</v>
+        <v>583.5448608398438</v>
       </c>
       <c r="CP3" t="n">
-        <v>726.7527465820312</v>
+        <v>583.5863037109375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>728.10986328125</v>
+        <v>583.6297607421875</v>
       </c>
       <c r="CR3" t="n">
-        <v>728.3099365234375</v>
+        <v>583.5926513671875</v>
       </c>
       <c r="CS3" t="n">
-        <v>727.6697387695312</v>
+        <v>583.568359375</v>
       </c>
       <c r="CT3" t="n">
-        <v>728.316650390625</v>
+        <v>583.5523681640625</v>
       </c>
       <c r="CU3" t="n">
-        <v>728.7628784179688</v>
+        <v>583.5169067382812</v>
       </c>
       <c r="CV3" t="n">
-        <v>728.81396484375</v>
+        <v>583.4813842773438</v>
       </c>
       <c r="CW3" t="n">
-        <v>728.4502563476562</v>
+        <v>583.441650390625</v>
       </c>
       <c r="CX3" t="n">
-        <v>727.9359741210938</v>
+        <v>583.4027099609375</v>
       </c>
       <c r="CY3" t="n">
-        <v>726.2235107421875</v>
+        <v>583.32666015625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>723.6997680664062</v>
+        <v>583.2725830078125</v>
       </c>
       <c r="DA3" t="n">
-        <v>722.3641357421875</v>
+        <v>583.3069458007812</v>
       </c>
       <c r="DB3" t="n">
-        <v>722.0880737304688</v>
+        <v>583.3734130859375</v>
       </c>
       <c r="DC3" t="n">
-        <v>722.5558471679688</v>
+        <v>583.451171875</v>
       </c>
       <c r="DD3" t="n">
-        <v>722.2653198242188</v>
+        <v>583.5590209960938</v>
       </c>
       <c r="DE3" t="n">
-        <v>721.9981689453125</v>
+        <v>584.0463256835938</v>
       </c>
       <c r="DF3" t="n">
-        <v>720.838623046875</v>
+        <v>584.2618408203125</v>
       </c>
       <c r="DG3" t="n">
-        <v>720.4536743164062</v>
+        <v>584.6257934570312</v>
       </c>
       <c r="DH3" t="n">
-        <v>719.6478271484375</v>
+        <v>585.1478271484375</v>
       </c>
       <c r="DI3" t="n">
-        <v>716.5565185546875</v>
+        <v>585.7201538085938</v>
       </c>
       <c r="DJ3" t="n">
-        <v>711.905517578125</v>
+        <v>586.5648193359375</v>
       </c>
       <c r="DK3" t="n">
-        <v>711.7074584960938</v>
+        <v>586.7820434570312</v>
       </c>
       <c r="DL3" t="n">
-        <v>710.2639770507812</v>
+        <v>586.6473388671875</v>
       </c>
       <c r="DM3" t="n">
-        <v>708.5755615234375</v>
+        <v>586.6752319335938</v>
       </c>
       <c r="DN3" t="n">
-        <v>706.4724731445312</v>
+        <v>586.9313354492188</v>
       </c>
       <c r="DO3" t="n">
-        <v>705.8358154296875</v>
+        <v>586.2088012695312</v>
       </c>
       <c r="DP3" t="n">
-        <v>702.8073120117188</v>
+        <v>586.02734375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>696.2139282226562</v>
+        <v>586.3865356445312</v>
       </c>
       <c r="DR3" t="n">
-        <v>694.6348876953125</v>
+        <v>586.643798828125</v>
       </c>
       <c r="DS3" t="n">
-        <v>693.5707397460938</v>
+        <v>586.8424682617188</v>
       </c>
       <c r="DT3" t="n">
-        <v>691.5984497070312</v>
+        <v>586.7924194335938</v>
       </c>
       <c r="DU3" t="n">
-        <v>690.3744506835938</v>
+        <v>586.4990234375</v>
       </c>
       <c r="DV3" t="n">
-        <v>689.4999389648438</v>
+        <v>585.79736328125</v>
       </c>
       <c r="DW3" t="n">
-        <v>689.4716796875</v>
+        <v>585.2579345703125</v>
       </c>
       <c r="DX3" t="n">
-        <v>688.53662109375</v>
+        <v>585.485107421875</v>
       </c>
       <c r="DY3" t="n">
-        <v>688.0078125</v>
+        <v>586.6347045898438</v>
       </c>
       <c r="DZ3" t="n">
-        <v>690.4734497070312</v>
+        <v>587.76416015625</v>
       </c>
       <c r="EA3" t="n">
-        <v>694.0759887695312</v>
+        <v>588.1381225585938</v>
       </c>
       <c r="EB3" t="n">
-        <v>692.2045288085938</v>
+        <v>588.3037109375</v>
       </c>
       <c r="EC3" t="n">
-        <v>692.8717041015625</v>
+        <v>588.5620727539062</v>
       </c>
       <c r="ED3" t="n">
-        <v>692.6820678710938</v>
+        <v>582.0623779296875</v>
       </c>
       <c r="EE3" t="n">
-        <v>693.2233276367188</v>
+        <v>576.3040161132812</v>
       </c>
       <c r="EF3" t="n">
-        <v>692.540283203125</v>
+        <v>571.2919311523438</v>
       </c>
       <c r="EG3" t="n">
-        <v>677.9718017578125</v>
+        <v>568.3998413085938</v>
       </c>
       <c r="EH3" t="n">
-        <v>674.0813598632812</v>
+        <v>568.0535888671875</v>
       </c>
       <c r="EI3" t="n">
-        <v>664.5612182617188</v>
+        <v>567.06591796875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>661.0133666992188</v>
+        <v>570.6775512695312</v>
       </c>
       <c r="EK3" t="n">
-        <v>649.892578125</v>
+        <v>577.0841064453125</v>
       </c>
       <c r="EL3" t="n">
-        <v>644.989990234375</v>
+        <v>580.1173706054688</v>
       </c>
       <c r="EM3" t="n">
-        <v>637.1537475585938</v>
+        <v>581.5684204101562</v>
       </c>
       <c r="EN3" t="n">
-        <v>632.0335083007812</v>
+        <v>582.59228515625</v>
       </c>
       <c r="EO3" t="n">
-        <v>636.9437866210938</v>
+        <v>584.346923828125</v>
       </c>
       <c r="EP3" t="n">
-        <v>635.6700439453125</v>
+        <v>584.5435180664062</v>
       </c>
       <c r="EQ3" t="n">
-        <v>630.1452026367188</v>
+        <v>585.8236083984375</v>
       </c>
       <c r="ER3" t="n">
-        <v>628.3316650390625</v>
+        <v>585.0328369140625</v>
       </c>
       <c r="ES3" t="n">
-        <v>629.8773803710938</v>
+        <v>584.2145385742188</v>
       </c>
       <c r="ET3" t="n">
-        <v>629.3900146484375</v>
+        <v>583.1796264648438</v>
       </c>
       <c r="EU3" t="n">
-        <v>622.760498046875</v>
+        <v>579.8861083984375</v>
       </c>
       <c r="EV3" t="n">
-        <v>615.5829467773438</v>
+        <v>575.6729736328125</v>
       </c>
       <c r="EW3" t="n">
-        <v>598.1522216796875</v>
+        <v>577.400390625</v>
       </c>
       <c r="EX3" t="n">
-        <v>587.651123046875</v>
+        <v>581.1526489257812</v>
       </c>
       <c r="EY3" t="n">
-        <v>581.1094970703125</v>
+        <v>585.380859375</v>
       </c>
       <c r="EZ3" t="n">
-        <v>574.2962646484375</v>
+        <v>595.6079711914062</v>
       </c>
       <c r="FA3" t="n">
-        <v>567.4397583007812</v>
+        <v>600.6538696289062</v>
       </c>
       <c r="FB3" t="n">
-        <v>571.6975708007812</v>
+        <v>603.2214965820312</v>
       </c>
       <c r="FC3" t="n">
-        <v>574.2400512695312</v>
+        <v>607.9580688476562</v>
       </c>
       <c r="FD3" t="n">
-        <v>572.57861328125</v>
+        <v>615.5877685546875</v>
       </c>
       <c r="FE3" t="n">
-        <v>568.5184936523438</v>
+        <v>619.0723876953125</v>
       </c>
       <c r="FF3" t="n">
-        <v>564.8840942382812</v>
+        <v>624.5205688476562</v>
       </c>
       <c r="FG3" t="n">
-        <v>558.377197265625</v>
+        <v>625.26220703125</v>
       </c>
       <c r="FH3" t="n">
-        <v>556.4267578125</v>
+        <v>625.4430541992188</v>
       </c>
       <c r="FI3" t="n">
-        <v>552.8150024414062</v>
+        <v>628.10693359375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>547.9976806640625</v>
+        <v>639.7777099609375</v>
       </c>
       <c r="FK3" t="n">
-        <v>541.0532836914062</v>
+        <v>641.7803344726562</v>
       </c>
       <c r="FL3" t="n">
-        <v>538.7116088867188</v>
+        <v>643.8887329101562</v>
       </c>
       <c r="FM3" t="n">
-        <v>531.0156860351562</v>
+        <v>645.1174926757812</v>
       </c>
       <c r="FN3" t="n">
-        <v>526.5930786132812</v>
+        <v>645.574462890625</v>
       </c>
       <c r="FO3" t="n">
-        <v>523.9236450195312</v>
+        <v>650.77197265625</v>
       </c>
       <c r="FP3" t="n">
-        <v>519.164794921875</v>
+        <v>654.92578125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>523.2041625976562</v>
+        <v>656.4589233398438</v>
       </c>
       <c r="FR3" t="n">
-        <v>525.650634765625</v>
+        <v>661.5298461914062</v>
       </c>
       <c r="FS3" t="n">
-        <v>527.7101440429688</v>
+        <v>661.0028076171875</v>
       </c>
       <c r="FT3" t="n">
-        <v>523.224365234375</v>
+        <v>664.1975708007812</v>
       </c>
       <c r="FU3" t="n">
-        <v>522.5043334960938</v>
+        <v>668.6054077148438</v>
       </c>
       <c r="FV3" t="n">
-        <v>523.6509399414062</v>
+        <v>678.458984375</v>
       </c>
       <c r="FW3" t="n">
-        <v>522.3328247070312</v>
+        <v>687.398681640625</v>
       </c>
       <c r="FX3" t="n">
-        <v>522.6172485351562</v>
+        <v>691.5670166015625</v>
       </c>
       <c r="FY3" t="n">
-        <v>522.8956909179688</v>
+        <v>698.3740844726562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>523.4093017578125</v>
+        <v>704.1071166992188</v>
       </c>
       <c r="GA3" t="n">
-        <v>522.4435424804688</v>
+        <v>715.7047729492188</v>
       </c>
       <c r="GB3" t="n">
-        <v>519.8912963867188</v>
+        <v>722.6797485351562</v>
       </c>
       <c r="GC3" t="n">
-        <v>517.1331787109375</v>
+        <v>741.739501953125</v>
       </c>
       <c r="GD3" t="n">
-        <v>516.5067749023438</v>
+        <v>750.6146240234375</v>
       </c>
       <c r="GE3" t="n">
-        <v>514.9345092773438</v>
+        <v>760.1694946289062</v>
       </c>
       <c r="GF3" t="n">
-        <v>513.2713012695312</v>
+        <v>773.774169921875</v>
       </c>
       <c r="GG3" t="n">
-        <v>513.5010375976562</v>
+        <v>777.2951049804688</v>
       </c>
       <c r="GH3" t="n">
-        <v>512.8279418945312</v>
+        <v>789.9622192382812</v>
       </c>
       <c r="GI3" t="n">
-        <v>512.6724243164062</v>
+        <v>805.647705078125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>494.5076904296875</v>
+        <v>816.0408935546875</v>
       </c>
       <c r="GK3" t="n">
-        <v>488.3957824707031</v>
+        <v>741.6444091796875</v>
       </c>
       <c r="GL3" t="n">
-        <v>492.3410339355469</v>
+        <v>761.5320434570312</v>
       </c>
       <c r="GM3" t="n">
-        <v>487.5714721679688</v>
+        <v>782.6259765625</v>
       </c>
       <c r="GN3" t="n">
-        <v>474.5486450195312</v>
+        <v>794.1588745117188</v>
       </c>
       <c r="GO3" t="n">
-        <v>467.5745849609375</v>
+        <v>816.3341674804688</v>
       </c>
       <c r="GP3" t="n">
-        <v>514.987060546875</v>
+        <v>820.0069580078125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>513.5731811523438</v>
+        <v>813.7349243164062</v>
       </c>
       <c r="GR3" t="n">
-        <v>509.9532470703125</v>
+        <v>817.8248291015625</v>
       </c>
       <c r="GS3" t="n">
-        <v>506.7255554199219</v>
+        <v>818.2081298828125</v>
       </c>
       <c r="GT3" t="n">
-        <v>505.5338134765625</v>
+        <v>818.8065795898438</v>
       </c>
       <c r="GU3" t="n">
-        <v>501.9475402832031</v>
+        <v>814.8460693359375</v>
       </c>
       <c r="GV3" t="n">
-        <v>501.6022033691406</v>
+        <v>813.4946899414062</v>
       </c>
       <c r="GW3" t="n">
-        <v>503.0252380371094</v>
+        <v>810.8564453125</v>
       </c>
       <c r="GX3" t="n">
-        <v>500.982177734375</v>
+        <v>805.6165771484375</v>
       </c>
       <c r="GY3" t="n">
-        <v>500.4790344238281</v>
+        <v>796.6680908203125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>501.5436706542969</v>
+        <v>799.1234130859375</v>
       </c>
       <c r="HA3" t="n">
-        <v>501.4286499023438</v>
+        <v>815.1339111328125</v>
       </c>
       <c r="HB3" t="n">
-        <v>500.6064147949219</v>
+        <v>817.1287231445312</v>
       </c>
       <c r="HC3" t="n">
-        <v>496.9443969726562</v>
+        <v>821.337646484375</v>
       </c>
       <c r="HD3" t="n">
-        <v>496.1671752929688</v>
+        <v>818.3320922851562</v>
       </c>
       <c r="HE3" t="n">
-        <v>497.8229064941406</v>
+        <v>823.5975952148438</v>
       </c>
       <c r="HF3" t="n">
-        <v>498.2039489746094</v>
+        <v>818.8619995117188</v>
       </c>
       <c r="HG3" t="n">
-        <v>499.1534729003906</v>
+        <v>812.3851928710938</v>
       </c>
       <c r="HH3" t="n">
-        <v>502.4442138671875</v>
+        <v>829.0653686523438</v>
       </c>
       <c r="HI3" t="n">
-        <v>501.3060302734375</v>
+        <v>864.7599487304688</v>
       </c>
       <c r="HJ3" t="n">
-        <v>503.5150756835938</v>
+        <v>897.5692138671875</v>
       </c>
       <c r="HK3" t="n">
-        <v>503.7205200195312</v>
+        <v>911.5054321289062</v>
       </c>
       <c r="HL3" t="n">
-        <v>513.6928100585938</v>
+        <v>921.9605712890625</v>
       </c>
       <c r="HM3" t="n">
-        <v>522.8989868164062</v>
+        <v>925.1690063476562</v>
       </c>
       <c r="HN3" t="n">
-        <v>527.1895751953125</v>
+        <v>925.7589111328125</v>
       </c>
       <c r="HO3" t="n">
-        <v>494.197998046875</v>
+        <v>947.5994873046875</v>
       </c>
       <c r="HP3" t="n">
-        <v>498.3607177734375</v>
+        <v>969.6826171875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>486.6167907714844</v>
+        <v>969.1016235351562</v>
       </c>
       <c r="HR3" t="n">
-        <v>479.9314270019531</v>
+        <v>997.8016357421875</v>
       </c>
       <c r="HS3" t="n">
-        <v>490.7835388183594</v>
+        <v>1015.324768066406</v>
       </c>
       <c r="HT3" t="n">
-        <v>492.2976989746094</v>
+        <v>1021.223937988281</v>
       </c>
       <c r="HU3" t="n">
-        <v>477.2857055664062</v>
+        <v>1008.223937988281</v>
       </c>
       <c r="HV3" t="n">
-        <v>474.6591491699219</v>
+        <v>1080.808959960938</v>
       </c>
       <c r="HW3" t="n">
-        <v>473.0825805664062</v>
+        <v>1061.659057617188</v>
       </c>
       <c r="HX3" t="n">
-        <v>478.6182861328125</v>
+        <v>1088.777587890625</v>
       </c>
       <c r="HY3" t="n">
-        <v>475.6670837402344</v>
+        <v>1000.381042480469</v>
       </c>
       <c r="HZ3" t="n">
-        <v>474.219482421875</v>
+        <v>1021.340454101562</v>
       </c>
       <c r="IA3" t="n">
-        <v>479.7527160644531</v>
+        <v>969.0297241210938</v>
       </c>
       <c r="IB3" t="n">
-        <v>486.6701965332031</v>
+        <v>967.0595092773438</v>
       </c>
       <c r="IC3" t="n">
-        <v>481.4629516601562</v>
+        <v>960.1730346679688</v>
       </c>
       <c r="ID3" t="n">
-        <v>470.9737854003906</v>
+        <v>995.1371459960938</v>
       </c>
       <c r="IE3" t="n">
-        <v>468.1600341796875</v>
+        <v>1017.748596191406</v>
       </c>
       <c r="IF3" t="n">
-        <v>469.9830017089844</v>
+        <v>980.53125</v>
       </c>
       <c r="IG3" t="n">
-        <v>472.7184143066406</v>
+        <v>931.7906494140625</v>
       </c>
       <c r="IH3" t="n">
-        <v>472.4039306640625</v>
+        <v>941.7825927734375</v>
       </c>
       <c r="II3" t="n">
-        <v>475.4200439453125</v>
+        <v>908.0693969726562</v>
       </c>
       <c r="IJ3" t="n">
-        <v>479.8022766113281</v>
+        <v>977.7255249023438</v>
       </c>
       <c r="IK3" t="n">
-        <v>499.41748046875</v>
+        <v>985.2368774414062</v>
       </c>
       <c r="IL3" t="n">
-        <v>492.9757080078125</v>
+        <v>1069.599487304688</v>
       </c>
       <c r="IM3" t="n">
-        <v>478.5014343261719</v>
+        <v>1137.584228515625</v>
       </c>
       <c r="IN3" t="n">
-        <v>477.1087646484375</v>
+        <v>1056.823852539062</v>
       </c>
       <c r="IO3" t="n">
-        <v>528.998291015625</v>
+        <v>1061.68359375</v>
       </c>
       <c r="IP3" t="n">
-        <v>527.5680541992188</v>
+        <v>1063.928466796875</v>
       </c>
       <c r="IQ3" t="n">
-        <v>520.8228759765625</v>
+        <v>1243.962890625</v>
       </c>
       <c r="IR3" t="n">
-        <v>523.5183715820312</v>
+        <v>1339.090087890625</v>
       </c>
       <c r="IS3" t="n">
-        <v>519.8977661132812</v>
+        <v>1342.885620117188</v>
       </c>
       <c r="IT3" t="n">
-        <v>519.079345703125</v>
+        <v>1356.077880859375</v>
       </c>
       <c r="IU3" t="n">
-        <v>518.1249389648438</v>
+        <v>1310.212524414062</v>
       </c>
       <c r="IV3" t="n">
-        <v>518.4555053710938</v>
+        <v>1330.4638671875</v>
       </c>
       <c r="IW3" t="n">
-        <v>518.510498046875</v>
+        <v>1322.751586914062</v>
       </c>
       <c r="IX3" t="n">
-        <v>517.3604736328125</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>517.8101806640625</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>518.0123901367188</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>519.3837890625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>519.16259765625</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>520.9630126953125</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>519.6264038085938</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>524.063720703125</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>525.479248046875</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>528.1599731445312</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>531.0187377929688</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>531.6807861328125</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>532.3989868164062</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>531.5564575195312</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>531.6024169921875</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>485.5403747558594</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>484.3018188476562</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>487.6361389160156</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>484.72119140625</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>468.8839416503906</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>479.9748840332031</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>492.3234558105469</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>479.4308471679688</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>483.3460693359375</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>486.4149169921875</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>487.6952819824219</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>487.434326171875</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>487.7948608398438</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>486.5122680664062</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>490.381103515625</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>494.7490844726562</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>499.157470703125</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>491.9125671386719</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>498.7212829589844</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>520.98779296875</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>508.3237915039062</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>489.9859313964844</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>491.0856018066406</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>486.9260864257812</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>512.6661987304688</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>522.8031616210938</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>511.7974243164062</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>485.0142211914062</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>492.0293579101562</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>509.5446472167969</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>505.8350830078125</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>486.3452758789062</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>520.9938354492188</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>475.8946533203125</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>484.9013366699219</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>493.6678466796875</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>486.1059875488281</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>512.9622802734375</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>486.2278137207031</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>493.9806213378906</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>534.601806640625</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>536.6693725585938</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>540.526611328125</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>543.9760131835938</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>545.367431640625</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>530.1383056640625</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>539.4270629882812</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>546.5956420898438</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>560.2260131835938</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>568.597900390625</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>577.591064453125</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>593.1209716796875</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>599.1314697265625</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>646.971435546875</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>656.7280883789062</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>670.1830444335938</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>622.1864624023438</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>648.4466552734375</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>682.5231323242188</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>692.272705078125</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>746.8750610351562</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>785.9008178710938</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>972.143798828125</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>825.1962280273438</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>854.0380859375</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>890.9947509765625</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>936.2783813476562</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>946.130859375</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>943.0301513671875</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>862.4845581054688</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>805.272705078125</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>785.6776123046875</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>789.5357055664062</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>798.7561645507812</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>799.5042724609375</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>817.1080322265625</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>843.3741455078125</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>868.3892211914062</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>881.296875</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>858.373046875</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>850.3140258789062</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>854.8432006835938</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>857.0875244140625</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>877.4451293945312</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>986.9581298828125</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>1093.712768554688</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>1103.495483398438</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>1095.826416015625</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>1094.37060546875</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>1131.99267578125</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>1133.416625976562</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>1132.809814453125</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>1143.5126953125</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>1109.5634765625</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>1149.004150390625</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>1167.652587890625</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>1226.309204101562</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>1253.9482421875</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>1285.938232421875</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>1260.030883789062</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>1268.979370117188</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>1251.424438476562</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>1146.958129882812</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>1206.264404296875</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>1191.117919921875</v>
+        <v>1320.415283203125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1036.720458984375</v>
+        <v>1003.327026367188</v>
       </c>
       <c r="B4" t="n">
-        <v>1031.981201171875</v>
+        <v>1008.169311523438</v>
       </c>
       <c r="C4" t="n">
-        <v>1032.684692382812</v>
+        <v>1016.301391601562</v>
       </c>
       <c r="D4" t="n">
-        <v>1033.931762695312</v>
+        <v>1028.204833984375</v>
       </c>
       <c r="E4" t="n">
-        <v>1035.186889648438</v>
+        <v>1045.207763671875</v>
       </c>
       <c r="F4" t="n">
-        <v>1036.445434570312</v>
+        <v>1060.450073242188</v>
       </c>
       <c r="G4" t="n">
-        <v>1038.571655273438</v>
+        <v>1075.397094726562</v>
       </c>
       <c r="H4" t="n">
-        <v>1041.964111328125</v>
+        <v>1089.719604492188</v>
       </c>
       <c r="I4" t="n">
-        <v>1050.42822265625</v>
+        <v>1106.316650390625</v>
       </c>
       <c r="J4" t="n">
-        <v>1066.005981445312</v>
+        <v>1126.062622070312</v>
       </c>
       <c r="K4" t="n">
-        <v>1087.499145507812</v>
+        <v>1139.706420898438</v>
       </c>
       <c r="L4" t="n">
-        <v>1102.264404296875</v>
+        <v>1162.86669921875</v>
       </c>
       <c r="M4" t="n">
-        <v>942.38525390625</v>
+        <v>1186.614379882812</v>
       </c>
       <c r="N4" t="n">
-        <v>964.2960815429688</v>
+        <v>1217.445068359375</v>
       </c>
       <c r="O4" t="n">
-        <v>1009.984680175781</v>
+        <v>1242.54736328125</v>
       </c>
       <c r="P4" t="n">
-        <v>1015.095397949219</v>
+        <v>1256.133666992188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1001.142150878906</v>
+        <v>1267.741821289062</v>
       </c>
       <c r="R4" t="n">
-        <v>1006.73876953125</v>
+        <v>1286.487182617188</v>
       </c>
       <c r="S4" t="n">
-        <v>1006.475402832031</v>
+        <v>1300.670776367188</v>
       </c>
       <c r="T4" t="n">
-        <v>1009.996459960938</v>
+        <v>1310.922729492188</v>
       </c>
       <c r="U4" t="n">
-        <v>1019.962768554688</v>
+        <v>1314.883178710938</v>
       </c>
       <c r="V4" t="n">
-        <v>1029.09375</v>
+        <v>1322.936279296875</v>
       </c>
       <c r="W4" t="n">
-        <v>1025.507690429688</v>
+        <v>1353.974975585938</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.927856445312</v>
+        <v>1366.468994140625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.68896484375</v>
+        <v>1364.338134765625</v>
       </c>
       <c r="Z4" t="n">
-        <v>999.1583251953125</v>
+        <v>1391.973510742188</v>
       </c>
       <c r="AA4" t="n">
-        <v>993.1671142578125</v>
+        <v>1409.600952148438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1072.683349609375</v>
+        <v>1424.372314453125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.54150390625</v>
+        <v>1442.938720703125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1291.733520507812</v>
+        <v>1466.382080078125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1296.904296875</v>
+        <v>1507.34326171875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1307.98828125</v>
+        <v>1518.638916015625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1315.254272460938</v>
+        <v>1524.91748046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1346.175659179688</v>
+        <v>1536.871337890625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1076.960571289062</v>
+        <v>1553.559692382812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1086.488037109375</v>
+        <v>1563.080322265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1073.25439453125</v>
+        <v>1565.930053710938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1067.081665039062</v>
+        <v>1570.807739257812</v>
       </c>
       <c r="AM4" t="n">
-        <v>1051.352294921875</v>
+        <v>1572.248779296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1046.48291015625</v>
+        <v>1572.278686523438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1039.605834960938</v>
+        <v>1576.945678710938</v>
       </c>
       <c r="AP4" t="n">
-        <v>1036.061279296875</v>
+        <v>1584.839965820312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1034.854248046875</v>
+        <v>1592.681884765625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1041.348388671875</v>
+        <v>1597.38623046875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1044.106689453125</v>
+        <v>1616.84765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1048.259643554688</v>
+        <v>1637.127563476562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1049.232788085938</v>
+        <v>1650.222778320312</v>
       </c>
       <c r="AV4" t="n">
-        <v>1054.788452148438</v>
+        <v>1653.152709960938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1056.032836914062</v>
+        <v>1658.238037109375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1055.055297851562</v>
+        <v>1667.91796875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1052.08984375</v>
+        <v>1675.975952148438</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1048.876220703125</v>
+        <v>1689.444091796875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1043.439819335938</v>
+        <v>1694.562133789062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1032.009765625</v>
+        <v>1699.01708984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1022.48828125</v>
+        <v>1694.027465820312</v>
       </c>
       <c r="BD4" t="n">
-        <v>1021.195495605469</v>
+        <v>1700.900390625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1019.641845703125</v>
+        <v>1704.99658203125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1020.287841796875</v>
+        <v>1700.54931640625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1022.083740234375</v>
+        <v>1700.823364257812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1027.275512695312</v>
+        <v>1700.121459960938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1032.22216796875</v>
+        <v>1698.130249023438</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1035.9296875</v>
+        <v>1686.114013671875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1044.260620117188</v>
+        <v>1680.114135742188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1049.376220703125</v>
+        <v>1687.68994140625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1050.306518554688</v>
+        <v>1703.106567382812</v>
       </c>
       <c r="BN4" t="n">
-        <v>1047.895874023438</v>
+        <v>1708.189086914062</v>
       </c>
       <c r="BO4" t="n">
-        <v>1012.275146484375</v>
+        <v>1701.849609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>992.7572021484375</v>
+        <v>1708.757080078125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>983.443115234375</v>
+        <v>1721.052001953125</v>
       </c>
       <c r="BR4" t="n">
-        <v>977.926025390625</v>
+        <v>1717.466186523438</v>
       </c>
       <c r="BS4" t="n">
-        <v>974.667724609375</v>
+        <v>1720.64306640625</v>
       </c>
       <c r="BT4" t="n">
-        <v>973.628662109375</v>
+        <v>1719.262451171875</v>
       </c>
       <c r="BU4" t="n">
-        <v>970.3587646484375</v>
+        <v>1716.638305664062</v>
       </c>
       <c r="BV4" t="n">
-        <v>965.1100463867188</v>
+        <v>1712.781005859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>957.6611328125</v>
+        <v>1708.41943359375</v>
       </c>
       <c r="BX4" t="n">
-        <v>959.768310546875</v>
+        <v>1706.9501953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>959.5638427734375</v>
+        <v>1704.612548828125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>962.7127685546875</v>
+        <v>1704.317749023438</v>
       </c>
       <c r="CA4" t="n">
-        <v>970.91552734375</v>
+        <v>1703.646484375</v>
       </c>
       <c r="CB4" t="n">
-        <v>975.22216796875</v>
+        <v>1702.683349609375</v>
       </c>
       <c r="CC4" t="n">
-        <v>976.9403076171875</v>
+        <v>1701.3583984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>977.6144409179688</v>
+        <v>1699.86669921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>975.2245483398438</v>
+        <v>1697.86083984375</v>
       </c>
       <c r="CF4" t="n">
-        <v>974.2639770507812</v>
+        <v>1697.265869140625</v>
       </c>
       <c r="CG4" t="n">
-        <v>973.20556640625</v>
+        <v>1693.862426757812</v>
       </c>
       <c r="CH4" t="n">
-        <v>968.9613037109375</v>
+        <v>1690.178344726562</v>
       </c>
       <c r="CI4" t="n">
-        <v>961.879638671875</v>
+        <v>1688.086669921875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>945.6875</v>
+        <v>1693.256591796875</v>
       </c>
       <c r="CK4" t="n">
-        <v>937.1615600585938</v>
+        <v>1695.6474609375</v>
       </c>
       <c r="CL4" t="n">
-        <v>926.3871459960938</v>
+        <v>1693.192138671875</v>
       </c>
       <c r="CM4" t="n">
-        <v>925.5838623046875</v>
+        <v>1689.097534179688</v>
       </c>
       <c r="CN4" t="n">
-        <v>922.6333618164062</v>
+        <v>1692.884765625</v>
       </c>
       <c r="CO4" t="n">
-        <v>924.542236328125</v>
+        <v>1694.678100585938</v>
       </c>
       <c r="CP4" t="n">
-        <v>926.4317626953125</v>
+        <v>1693.846435546875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>924.2984619140625</v>
+        <v>1693.185180664062</v>
       </c>
       <c r="CR4" t="n">
-        <v>925.9627075195312</v>
+        <v>1693.37451171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>930.9730834960938</v>
+        <v>1693.505004882812</v>
       </c>
       <c r="CT4" t="n">
-        <v>930.0345458984375</v>
+        <v>1693.611328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>929.4693603515625</v>
+        <v>1693.914428710938</v>
       </c>
       <c r="CV4" t="n">
-        <v>928.5933837890625</v>
+        <v>1694.396240234375</v>
       </c>
       <c r="CW4" t="n">
-        <v>927.6050415039062</v>
+        <v>1695.070556640625</v>
       </c>
       <c r="CX4" t="n">
-        <v>925.1068115234375</v>
+        <v>1695.973999023438</v>
       </c>
       <c r="CY4" t="n">
-        <v>925.7855224609375</v>
+        <v>1698.61865234375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>927.2791748046875</v>
+        <v>1700.349975585938</v>
       </c>
       <c r="DA4" t="n">
-        <v>928.158935546875</v>
+        <v>1700.609008789062</v>
       </c>
       <c r="DB4" t="n">
-        <v>928.857666015625</v>
+        <v>1700.676513671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>928.663818359375</v>
+        <v>1701.35791015625</v>
       </c>
       <c r="DD4" t="n">
-        <v>929.3016357421875</v>
+        <v>1701.60986328125</v>
       </c>
       <c r="DE4" t="n">
-        <v>930.2129516601562</v>
+        <v>1699.87158203125</v>
       </c>
       <c r="DF4" t="n">
-        <v>929.7302856445312</v>
+        <v>1699.756225585938</v>
       </c>
       <c r="DG4" t="n">
-        <v>928.1676025390625</v>
+        <v>1698.962280273438</v>
       </c>
       <c r="DH4" t="n">
-        <v>925.5400390625</v>
+        <v>1697.95556640625</v>
       </c>
       <c r="DI4" t="n">
-        <v>925.8793334960938</v>
+        <v>1696.79248046875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>925.5771484375</v>
+        <v>1694.931030273438</v>
       </c>
       <c r="DK4" t="n">
-        <v>923.923583984375</v>
+        <v>1694.65966796875</v>
       </c>
       <c r="DL4" t="n">
-        <v>925.872802734375</v>
+        <v>1694.885986328125</v>
       </c>
       <c r="DM4" t="n">
-        <v>928.7545166015625</v>
+        <v>1694.773681640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>934.90478515625</v>
+        <v>1694.068359375</v>
       </c>
       <c r="DO4" t="n">
-        <v>947.8292236328125</v>
+        <v>1694.0751953125</v>
       </c>
       <c r="DP4" t="n">
-        <v>968.5574951171875</v>
+        <v>1693.69140625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>995.462646484375</v>
+        <v>1692.315673828125</v>
       </c>
       <c r="DR4" t="n">
-        <v>998.3743286132812</v>
+        <v>1690.760131835938</v>
       </c>
       <c r="DS4" t="n">
-        <v>1000.557678222656</v>
+        <v>1689.544799804688</v>
       </c>
       <c r="DT4" t="n">
-        <v>1005.129150390625</v>
+        <v>1692.081909179688</v>
       </c>
       <c r="DU4" t="n">
-        <v>1007.454467773438</v>
+        <v>1695.192138671875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1008.876525878906</v>
+        <v>1704.047607421875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1010.053833007812</v>
+        <v>1712.615478515625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1011.397094726562</v>
+        <v>1713.5859375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1013.588500976562</v>
+        <v>1700.55029296875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1014.703735351562</v>
+        <v>1679.785034179688</v>
       </c>
       <c r="EA4" t="n">
-        <v>1013.160522460938</v>
+        <v>1671.309448242188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1018.325805664062</v>
+        <v>1672.812744140625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1016.943054199219</v>
+        <v>1671.3046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1016.577026367188</v>
+        <v>1596.286865234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1016.218017578125</v>
+        <v>1576.557006835938</v>
       </c>
       <c r="EF4" t="n">
-        <v>1026.227661132812</v>
+        <v>1574.356323242188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1074.190673828125</v>
+        <v>1572.05029296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1084.458740234375</v>
+        <v>1580.003051757812</v>
       </c>
       <c r="EI4" t="n">
-        <v>1109.89599609375</v>
+        <v>1573.286254882812</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1119.711059570312</v>
+        <v>1583.949951171875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1155.797607421875</v>
+        <v>1614.989990234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1172.251953125</v>
+        <v>1633.400634765625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1189.665161132812</v>
+        <v>1643.616577148438</v>
       </c>
       <c r="EN4" t="n">
-        <v>1202.121704101562</v>
+        <v>1658.7236328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1210.894775390625</v>
+        <v>1644.0703125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1212.473266601562</v>
+        <v>1633.480834960938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1240.535888671875</v>
+        <v>1644.144775390625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1252.089965820312</v>
+        <v>1640.185424804688</v>
       </c>
       <c r="ES4" t="n">
-        <v>1258.22607421875</v>
+        <v>1636.840087890625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1262.205810546875</v>
+        <v>1629.0107421875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1281.24169921875</v>
+        <v>1599.265014648438</v>
       </c>
       <c r="EV4" t="n">
-        <v>1322.792358398438</v>
+        <v>1566.648681640625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1385.331787109375</v>
+        <v>1552.392456054688</v>
       </c>
       <c r="EX4" t="n">
-        <v>1410.732543945312</v>
+        <v>1528.516845703125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1445.040161132812</v>
+        <v>1522.052490234375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1473.617919921875</v>
+        <v>1514.809448242188</v>
       </c>
       <c r="FA4" t="n">
-        <v>1512.8681640625</v>
+        <v>1515.193969726562</v>
       </c>
       <c r="FB4" t="n">
-        <v>1517.307250976562</v>
+        <v>1518.938232421875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1531.598388671875</v>
+        <v>1516.022705078125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1615.209106445312</v>
+        <v>1506.714477539062</v>
       </c>
       <c r="FE4" t="n">
-        <v>1656.436279296875</v>
+        <v>1503.031127929688</v>
       </c>
       <c r="FF4" t="n">
-        <v>1678.270263671875</v>
+        <v>1459.60498046875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1764.890625</v>
+        <v>1427.830322265625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1802.895263671875</v>
+        <v>1387.306274414062</v>
       </c>
       <c r="FI4" t="n">
-        <v>1801.904541015625</v>
+        <v>1369.42578125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1825.961059570312</v>
+        <v>1349.265258789062</v>
       </c>
       <c r="FK4" t="n">
-        <v>1873.908447265625</v>
+        <v>1378.391845703125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1893.935424804688</v>
+        <v>1372.411499023438</v>
       </c>
       <c r="FM4" t="n">
-        <v>1980.645263671875</v>
+        <v>1370.907836914062</v>
       </c>
       <c r="FN4" t="n">
-        <v>2022.049072265625</v>
+        <v>1357.373413085938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2058.2509765625</v>
+        <v>1335.370849609375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2109.34033203125</v>
+        <v>1332.472778320312</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2110.029541015625</v>
+        <v>1329.049682617188</v>
       </c>
       <c r="FR4" t="n">
-        <v>2094.61669921875</v>
+        <v>1307.674926757812</v>
       </c>
       <c r="FS4" t="n">
-        <v>2074.20703125</v>
+        <v>1295.173095703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2081.500732421875</v>
+        <v>1278.121948242188</v>
       </c>
       <c r="FU4" t="n">
-        <v>2105.12890625</v>
+        <v>1254.667602539062</v>
       </c>
       <c r="FV4" t="n">
-        <v>2098.03369140625</v>
+        <v>1215.080810546875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2094.761962890625</v>
+        <v>1162.2470703125</v>
       </c>
       <c r="FX4" t="n">
-        <v>2091.69970703125</v>
+        <v>1147.953247070312</v>
       </c>
       <c r="FY4" t="n">
-        <v>2095.628662109375</v>
+        <v>1111.705932617188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2081.25</v>
+        <v>1086.822265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2086.25341796875</v>
+        <v>1052.227172851562</v>
       </c>
       <c r="GB4" t="n">
-        <v>2091.498046875</v>
+        <v>1033.423828125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2092.68603515625</v>
+        <v>985.26953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2107.66552734375</v>
+        <v>959.1422729492188</v>
       </c>
       <c r="GE4" t="n">
-        <v>2094.726318359375</v>
+        <v>926.0810546875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2113.820556640625</v>
+        <v>902.866943359375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2114.10791015625</v>
+        <v>894.89697265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2119.808349609375</v>
+        <v>875.103515625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2124.218505859375</v>
+        <v>850.6738891601562</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2240.63916015625</v>
+        <v>834.145751953125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2269.638427734375</v>
+        <v>1001.325988769531</v>
       </c>
       <c r="GL4" t="n">
-        <v>2249.899658203125</v>
+        <v>964.065185546875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2256.625732421875</v>
+        <v>928.9866333007812</v>
       </c>
       <c r="GN4" t="n">
-        <v>2288.220947265625</v>
+        <v>910.0227661132812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2302.660888671875</v>
+        <v>874.4091796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2062.863037109375</v>
+        <v>858.146728515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2042.29296875</v>
+        <v>851.7325439453125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2029.717041015625</v>
+        <v>838.6661987304688</v>
       </c>
       <c r="GS4" t="n">
-        <v>2088.319091796875</v>
+        <v>836.2952880859375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2099.0361328125</v>
+        <v>833.6593017578125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2045.138793945312</v>
+        <v>833.9960327148438</v>
       </c>
       <c r="GV4" t="n">
-        <v>2004.235595703125</v>
+        <v>834.390625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2008.333374023438</v>
+        <v>836.1737060546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2029.164916992188</v>
+        <v>841.6820068359375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2011.874267578125</v>
+        <v>856.8285522460938</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2028.639892578125</v>
+        <v>857.680419921875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2031.438232421875</v>
+        <v>853.0235595703125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2028.998046875</v>
+        <v>851.43994140625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1974.688232421875</v>
+        <v>856.4384765625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2003.746215820312</v>
+        <v>869.55908203125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2024.137451171875</v>
+        <v>861.583251953125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2024.117431640625</v>
+        <v>860.3027954101562</v>
       </c>
       <c r="HG4" t="n">
-        <v>2007.186401367188</v>
+        <v>857.3148803710938</v>
       </c>
       <c r="HH4" t="n">
-        <v>1986.094970703125</v>
+        <v>848.2470092773438</v>
       </c>
       <c r="HI4" t="n">
-        <v>1985.603759765625</v>
+        <v>813.9141235351562</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2009.66796875</v>
+        <v>766.0926513671875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1965.417114257812</v>
+        <v>760.3492431640625</v>
       </c>
       <c r="HL4" t="n">
-        <v>1949.618896484375</v>
+        <v>749.456787109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1942.72119140625</v>
+        <v>747.5381469726562</v>
       </c>
       <c r="HN4" t="n">
-        <v>1912.56640625</v>
+        <v>746.215576171875</v>
       </c>
       <c r="HO4" t="n">
-        <v>2146.60009765625</v>
+        <v>721.1714477539062</v>
       </c>
       <c r="HP4" t="n">
-        <v>2122.577880859375</v>
+        <v>706.5792846679688</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2131.592529296875</v>
+        <v>705.4470825195312</v>
       </c>
       <c r="HR4" t="n">
-        <v>2144.044677734375</v>
+        <v>690.8570556640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>2141.63623046875</v>
+        <v>676.279052734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2138.400146484375</v>
+        <v>676.1068115234375</v>
       </c>
       <c r="HU4" t="n">
-        <v>2135.09033203125</v>
+        <v>687.9085693359375</v>
       </c>
       <c r="HV4" t="n">
-        <v>2155.05517578125</v>
+        <v>678.4757080078125</v>
       </c>
       <c r="HW4" t="n">
-        <v>2160.431640625</v>
+        <v>674.0532836914062</v>
       </c>
       <c r="HX4" t="n">
-        <v>2166.054443359375</v>
+        <v>671.1099853515625</v>
       </c>
       <c r="HY4" t="n">
-        <v>2172.086669921875</v>
+        <v>741.0887451171875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2186.125</v>
+        <v>755.0642700195312</v>
       </c>
       <c r="IA4" t="n">
-        <v>2200.16259765625</v>
+        <v>803.5816040039062</v>
       </c>
       <c r="IB4" t="n">
-        <v>2177.6865234375</v>
+        <v>805.5170288085938</v>
       </c>
       <c r="IC4" t="n">
-        <v>2199.224609375</v>
+        <v>819.4884033203125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2202.1240234375</v>
+        <v>820.5911254882812</v>
       </c>
       <c r="IE4" t="n">
-        <v>2173.42919921875</v>
+        <v>778.7769775390625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2181.4736328125</v>
+        <v>813.0933837890625</v>
       </c>
       <c r="IG4" t="n">
-        <v>2180.53564453125</v>
+        <v>887.4827270507812</v>
       </c>
       <c r="IH4" t="n">
-        <v>2174.03857421875</v>
+        <v>866.8951416015625</v>
       </c>
       <c r="II4" t="n">
-        <v>2202.63720703125</v>
+        <v>883.2008056640625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2177.486572265625</v>
+        <v>812.8673095703125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2098.384033203125</v>
+        <v>793.4011840820312</v>
       </c>
       <c r="IL4" t="n">
-        <v>2110.525146484375</v>
+        <v>733.9188842773438</v>
       </c>
       <c r="IM4" t="n">
-        <v>2155.895751953125</v>
+        <v>673.9119873046875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2151.938232421875</v>
+        <v>740.58447265625</v>
       </c>
       <c r="IO4" t="n">
-        <v>1943.828247070312</v>
+        <v>727.3037109375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1921.815551757812</v>
+        <v>723.349853515625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1902.43701171875</v>
+        <v>579.425537109375</v>
       </c>
       <c r="IR4" t="n">
-        <v>1893.99658203125</v>
+        <v>531.4401245117188</v>
       </c>
       <c r="IS4" t="n">
-        <v>1889.500244140625</v>
+        <v>531.615966796875</v>
       </c>
       <c r="IT4" t="n">
-        <v>1913.03466796875</v>
+        <v>519.52880859375</v>
       </c>
       <c r="IU4" t="n">
-        <v>1905.05224609375</v>
+        <v>558.8958740234375</v>
       </c>
       <c r="IV4" t="n">
-        <v>1885.32177734375</v>
+        <v>520.2326049804688</v>
       </c>
       <c r="IW4" t="n">
-        <v>1882.792236328125</v>
+        <v>518.0313720703125</v>
       </c>
       <c r="IX4" t="n">
-        <v>1881.979370117188</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>1880.576416015625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>1880.166748046875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>1890.548217773438</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>1887.81494140625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>1893.737548828125</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>1854.150146484375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>1877.8544921875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>1903.337646484375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>1909.68798828125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>1905.130249023438</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>1905.477294921875</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>1906.846923828125</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>1933.262451171875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>1917.361083984375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2138.606201171875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2137.47314453125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2144.507568359375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2181.67041015625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2197.648193359375</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2141.99267578125</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2146.125244140625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2138.5791015625</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2134.353759765625</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2132.853515625</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2131.81884765625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2128.791748046875</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2130.5283203125</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2132.3857421875</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2139.932861328125</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2138.196044921875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2113.66748046875</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2137.267333984375</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2121.0927734375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2034.21484375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2096.6494140625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2163.92626953125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2178.0869140625</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2193.357421875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2095.427734375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2041.921875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2093.55078125</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2185.4892578125</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2158.521484375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2087.1162109375</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2117.6357421875</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2163.4736328125</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2019.0849609375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2168.10205078125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2103.604248046875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2127.88427734375</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2157.376708984375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2032.19091796875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2147.154296875</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2096.37646484375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>1959.299560546875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>1954.265747070312</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>1918.678955078125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>1794.63134765625</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>1752.447631835938</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2034.2939453125</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1982.150024414062</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1939.285400390625</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1845.683837890625</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1768.060546875</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1676.175170898438</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1604.557373046875</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1552.092041015625</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1256.6396484375</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1174.369873046875</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1074.5791015625</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1074.620971679688</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1023.458923339844</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>954.4005737304688</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>818.0326538085938</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>881.9258422851562</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>808.859619140625</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>524.751708984375</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>730.1137084960938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>689.6776123046875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>660.0000610351562</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>645.7340087890625</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>642.2078857421875</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>642.7301025390625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>709.4105224609375</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>774.186279296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>802.0573120117188</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>832.2860107421875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>844.423095703125</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>866.107177734375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>900.0667114257812</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>925.5476684570312</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>928.1265869140625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>931.9443969726562</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>977.120849609375</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>989.7068481445312</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>986.3406982421875</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>986.5491943359375</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>959.5466918945312</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>816.9459838867188</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>675.0872802734375</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>640.6316528320312</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>679.0227661132812</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>710.8433837890625</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>658.0604858398438</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>651.2999877929688</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>649.2730712890625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>636.8427124023438</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>631.5697631835938</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>600.818115234375</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>591.5369873046875</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>574.5831909179688</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>562.9328002929688</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>536.2555541992188</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>546.0623168945312</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>547.4937133789062</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>556.5123901367188</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>628.6170043945312</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>602.8994750976562</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>600.3536987304688</v>
+        <v>518.7930297851562</v>
       </c>
     </row>
   </sheetData>
